--- a/sp500-eqweight-trades.xlsx
+++ b/sp500-eqweight-trades.xlsx
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>123.87</v>
+        <v>119.31</v>
       </c>
       <c r="C2" s="2">
-        <v>36986073871</v>
+        <v>38104933447</v>
       </c>
       <c r="D2" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>18.3</v>
+        <v>17.804</v>
       </c>
       <c r="C3" s="2">
-        <v>11084454006</v>
+        <v>10871348716</v>
       </c>
       <c r="D3" s="3">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>161.24</v>
+        <v>164.79</v>
       </c>
       <c r="C4" s="2">
-        <v>11004802016</v>
+        <v>10956754885</v>
       </c>
       <c r="D4" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>129.01</v>
+        <v>122.7</v>
       </c>
       <c r="C5" s="2">
-        <v>2196815197568</v>
+        <v>2136996789849</v>
       </c>
       <c r="D5" s="3">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>110.06</v>
+        <v>106.46</v>
       </c>
       <c r="C6" s="2">
-        <v>198703056469</v>
+        <v>188002656686</v>
       </c>
       <c r="D6" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2007,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>100.96</v>
+        <v>99.2</v>
       </c>
       <c r="C7" s="2">
-        <v>20928142256</v>
+        <v>20835937643</v>
       </c>
       <c r="D7" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2021,13 +2021,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>280.11</v>
+        <v>267.3</v>
       </c>
       <c r="C8" s="2">
-        <v>12156707993</v>
+        <v>12015684171</v>
       </c>
       <c r="D8" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2035,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>109.03</v>
+        <v>107.653</v>
       </c>
       <c r="C9" s="2">
-        <v>193064160382</v>
+        <v>192000714467</v>
       </c>
       <c r="D9" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,10 +2049,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>256.54</v>
+        <v>257.95</v>
       </c>
       <c r="C10" s="2">
-        <v>169994322326</v>
+        <v>162740334614</v>
       </c>
       <c r="D10" s="3">
         <v>38</v>
@@ -2063,10 +2063,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>486.75</v>
+        <v>490.97</v>
       </c>
       <c r="C11" s="2">
-        <v>231651938239</v>
+        <v>232135966227</v>
       </c>
       <c r="D11" s="3">
         <v>20</v>
@@ -2077,13 +2077,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>148.29</v>
+        <v>141.92</v>
       </c>
       <c r="C12" s="2">
-        <v>52357693483</v>
+        <v>53981628799</v>
       </c>
       <c r="D12" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2091,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>51.2</v>
+        <v>52.04</v>
       </c>
       <c r="C13" s="2">
-        <v>27514741663</v>
+        <v>28219768060</v>
       </c>
       <c r="D13" s="3">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>178.02</v>
+        <v>177.21</v>
       </c>
       <c r="C14" s="2">
-        <v>76153844343</v>
+        <v>74783373826</v>
       </c>
       <c r="D14" s="3">
         <v>55</v>
@@ -2119,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>283.77</v>
+        <v>284.637</v>
       </c>
       <c r="C15" s="2">
-        <v>62306172839</v>
+        <v>63302433891</v>
       </c>
       <c r="D15" s="3">
         <v>34</v>
@@ -2133,10 +2133,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>78.34999999999999</v>
+        <v>78.425</v>
       </c>
       <c r="C16" s="2">
-        <v>19549306046</v>
+        <v>19369665037</v>
       </c>
       <c r="D16" s="3">
         <v>126</v>
@@ -2147,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>83.61</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="C17" s="2">
-        <v>41307584785</v>
+        <v>40874838168</v>
       </c>
       <c r="D17" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>21.87</v>
+        <v>21.809</v>
       </c>
       <c r="C18" s="2">
-        <v>14534389145</v>
+        <v>13971000892</v>
       </c>
       <c r="D18" s="3">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>47.35</v>
+        <v>46.74</v>
       </c>
       <c r="C19" s="2">
-        <v>33110415581</v>
+        <v>32371168591</v>
       </c>
       <c r="D19" s="3">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>41.4</v>
+        <v>40.58</v>
       </c>
       <c r="C20" s="2">
-        <v>35723289549</v>
+        <v>33549028366</v>
       </c>
       <c r="D20" s="3">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>41.53</v>
+        <v>42.34</v>
       </c>
       <c r="C21" s="2">
-        <v>6594596194</v>
+        <v>6415943840</v>
       </c>
       <c r="D21" s="3">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,13 +2217,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>135.56</v>
+        <v>133.14</v>
       </c>
       <c r="C22" s="2">
-        <v>7936605381</v>
+        <v>7891966340</v>
       </c>
       <c r="D22" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2231,13 +2231,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>119.86</v>
+        <v>124.356</v>
       </c>
       <c r="C23" s="2">
-        <v>23685569653</v>
+        <v>24226596869</v>
       </c>
       <c r="D23" s="3">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>104.25</v>
+        <v>103.5</v>
       </c>
       <c r="C24" s="2">
-        <v>16881465373</v>
+        <v>17642827053</v>
       </c>
       <c r="D24" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>143.7</v>
+        <v>137.98</v>
       </c>
       <c r="C25" s="2">
-        <v>15238345595</v>
+        <v>14927135542</v>
       </c>
       <c r="D25" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2273,10 +2273,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>516.74</v>
+        <v>507.138</v>
       </c>
       <c r="C26" s="2">
-        <v>41545972553</v>
+        <v>40671282093</v>
       </c>
       <c r="D26" s="3">
         <v>19</v>
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>53.78</v>
+        <v>52.2</v>
       </c>
       <c r="C27" s="2">
-        <v>6587829793</v>
+        <v>6200748643</v>
       </c>
       <c r="D27" s="3">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2301,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>106.31</v>
+        <v>107.96</v>
       </c>
       <c r="C28" s="2">
-        <v>32788575269</v>
+        <v>32213546853</v>
       </c>
       <c r="D28" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>113.99</v>
+        <v>113.722</v>
       </c>
       <c r="C29" s="2">
-        <v>10326637518</v>
+        <v>10385045428</v>
       </c>
       <c r="D29" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>119.9</v>
+        <v>120.67</v>
       </c>
       <c r="C30" s="2">
-        <v>26668875669</v>
+        <v>27028876613</v>
       </c>
       <c r="D30" s="3">
         <v>82</v>
@@ -2343,13 +2343,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>91.8</v>
+        <v>89.91</v>
       </c>
       <c r="C31" s="2">
-        <v>81330236587</v>
+        <v>81974249619</v>
       </c>
       <c r="D31" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2357,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>11.73</v>
+        <v>11.37</v>
       </c>
       <c r="C32" s="2">
-        <v>18233298421</v>
+        <v>18085166789</v>
       </c>
       <c r="D32" s="3">
-        <v>844</v>
+        <v>870</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2371,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>92.26000000000001</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="C33" s="2">
-        <v>112173460667</v>
+        <v>114433794954</v>
       </c>
       <c r="D33" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,10 +2385,10 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>119.6</v>
+        <v>120.38</v>
       </c>
       <c r="C34" s="2">
-        <v>27959750824</v>
+        <v>27128297739</v>
       </c>
       <c r="D34" s="3">
         <v>82</v>
@@ -2399,13 +2399,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>238.4</v>
+        <v>235.02</v>
       </c>
       <c r="C35" s="2">
-        <v>133262139397</v>
+        <v>133476181312</v>
       </c>
       <c r="D35" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>196.55</v>
+        <v>195.23</v>
       </c>
       <c r="C36" s="2">
-        <v>23044543847</v>
+        <v>22971307453</v>
       </c>
       <c r="D36" s="3">
         <v>50</v>
@@ -2427,13 +2427,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>228.95</v>
+        <v>223.98</v>
       </c>
       <c r="C37" s="2">
-        <v>100445402894</v>
+        <v>97990797162</v>
       </c>
       <c r="D37" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3134.19</v>
+        <v>3165</v>
       </c>
       <c r="C38" s="2">
-        <v>1568602531278</v>
+        <v>1584336404284</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
@@ -2455,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>279.83</v>
+        <v>290.58</v>
       </c>
       <c r="C39" s="2">
-        <v>21674972078</v>
+        <v>21725230221</v>
       </c>
       <c r="D39" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>340.92</v>
+        <v>332.757</v>
       </c>
       <c r="C40" s="2">
-        <v>29937933109</v>
+        <v>28538067298</v>
       </c>
       <c r="D40" s="3">
         <v>29</v>
@@ -2483,10 +2483,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>318.57</v>
+        <v>317.207</v>
       </c>
       <c r="C41" s="2">
-        <v>79668787550</v>
+        <v>78226617558</v>
       </c>
       <c r="D41" s="3">
         <v>31</v>
@@ -2497,10 +2497,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>212.27</v>
+        <v>214.28</v>
       </c>
       <c r="C42" s="2">
-        <v>48427511873</v>
+        <v>49152950891</v>
       </c>
       <c r="D42" s="3">
         <v>46</v>
@@ -2511,13 +2511,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>57.06</v>
+        <v>57.81</v>
       </c>
       <c r="C43" s="2">
-        <v>7659853496</v>
+        <v>7951919226</v>
       </c>
       <c r="D43" s="3">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>17.049</v>
+        <v>16.543</v>
       </c>
       <c r="C44" s="2">
-        <v>6510295368</v>
+        <v>6291275813</v>
       </c>
       <c r="D44" s="3">
-        <v>580</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,10 +2539,10 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>271.32</v>
+        <v>270.54</v>
       </c>
       <c r="C45" s="2">
-        <v>60787349670</v>
+        <v>59431858573</v>
       </c>
       <c r="D45" s="3">
         <v>36</v>
@@ -2553,13 +2553,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>137.51</v>
+        <v>134.537</v>
       </c>
       <c r="C46" s="2">
-        <v>40111491649</v>
+        <v>39846643700</v>
       </c>
       <c r="D46" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2567,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>130.29</v>
+        <v>125.58</v>
       </c>
       <c r="C47" s="2">
-        <v>33793317876</v>
+        <v>33598274043</v>
       </c>
       <c r="D47" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,10 +2581,10 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>172.76</v>
+        <v>173.53</v>
       </c>
       <c r="C48" s="2">
-        <v>23199675284</v>
+        <v>23868212929</v>
       </c>
       <c r="D48" s="3">
         <v>57</v>
@@ -2595,13 +2595,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>98.18000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C49" s="2">
-        <v>12537372489</v>
+        <v>12432127778</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2609,13 +2609,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>85.17</v>
+        <v>83.8</v>
       </c>
       <c r="C50" s="2">
-        <v>65757727193</v>
+        <v>66575643925</v>
       </c>
       <c r="D50" s="3">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2623,10 +2623,10 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>168.75</v>
+        <v>169.04</v>
       </c>
       <c r="C51" s="2">
-        <v>23508060081</v>
+        <v>23277089748</v>
       </c>
       <c r="D51" s="3">
         <v>58</v>
@@ -2637,13 +2637,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>420.109</v>
+        <v>411.26</v>
       </c>
       <c r="C52" s="2">
-        <v>166583161799</v>
+        <v>164196125300</v>
       </c>
       <c r="D52" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2651,13 +2651,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>154</v>
+        <v>156.83</v>
       </c>
       <c r="C53" s="2">
-        <v>12746757142</v>
+        <v>12997687765</v>
       </c>
       <c r="D53" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2665,13 +2665,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>152.21</v>
+        <v>149.46</v>
       </c>
       <c r="C54" s="2">
-        <v>27439424315</v>
+        <v>26769566727</v>
       </c>
       <c r="D54" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>127.09</v>
+        <v>122.276</v>
       </c>
       <c r="C55" s="2">
-        <v>101521020176</v>
+        <v>96694233791</v>
       </c>
       <c r="D55" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1143.7</v>
+        <v>1151</v>
       </c>
       <c r="C56" s="2">
-        <v>26774286348</v>
+        <v>26942875821</v>
       </c>
       <c r="D56" s="3">
         <v>8</v>
@@ -2707,10 +2707,10 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>237.31</v>
+        <v>239.21</v>
       </c>
       <c r="C57" s="2">
-        <v>133680906855</v>
+        <v>134695369335</v>
       </c>
       <c r="D57" s="3">
         <v>41</v>
@@ -2721,13 +2721,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>29.73</v>
+        <v>28.923</v>
       </c>
       <c r="C58" s="2">
-        <v>264359395586</v>
+        <v>252698050584</v>
       </c>
       <c r="D58" s="3">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>81.31999999999999</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="C59" s="2">
-        <v>41252607536</v>
+        <v>40480473223</v>
       </c>
       <c r="D59" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>108.09</v>
+        <v>104.8</v>
       </c>
       <c r="C60" s="2">
-        <v>27464971739</v>
+        <v>27103803745</v>
       </c>
       <c r="D60" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>249.06</v>
+        <v>250.45</v>
       </c>
       <c r="C61" s="2">
-        <v>73589514110</v>
+        <v>71577349207</v>
       </c>
       <c r="D61" s="3">
         <v>39</v>
@@ -2777,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>25.44</v>
+        <v>25.31</v>
       </c>
       <c r="C62" s="2">
-        <v>12335751113</v>
+        <v>12755212766</v>
       </c>
       <c r="D62" s="3">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>79.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="C63" s="2">
-        <v>37716077172</v>
+        <v>36960994822</v>
       </c>
       <c r="D63" s="3">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,13 +2805,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>245.22</v>
+        <v>247.7</v>
       </c>
       <c r="C64" s="2">
-        <v>37934368485</v>
+        <v>38745969048</v>
       </c>
       <c r="D64" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>561.23</v>
+        <v>570.51</v>
       </c>
       <c r="C65" s="2">
-        <v>17448440829</v>
+        <v>17285233496</v>
       </c>
       <c r="D65" s="3">
         <v>17</v>
@@ -2833,13 +2833,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>43.23</v>
+        <v>42.169</v>
       </c>
       <c r="C66" s="2">
-        <v>37783137831</v>
+        <v>36997345306</v>
       </c>
       <c r="D66" s="3">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,10 +2847,10 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2109</v>
+        <v>2094.573</v>
       </c>
       <c r="C67" s="2">
-        <v>87903810692</v>
+        <v>86235946002</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
@@ -2861,13 +2861,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>23.32</v>
+        <v>23.04</v>
       </c>
       <c r="C68" s="2">
-        <v>16093420586</v>
+        <v>15677613062</v>
       </c>
       <c r="D68" s="3">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2875,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>705.88</v>
+        <v>717.269</v>
       </c>
       <c r="C69" s="2">
-        <v>111381207988</v>
+        <v>105675561772</v>
       </c>
       <c r="D69" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,13 +2889,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>95.41</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="C70" s="2">
-        <v>31747733629</v>
+        <v>30121464761</v>
       </c>
       <c r="D70" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2903,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>60.2</v>
+        <v>63.68</v>
       </c>
       <c r="C71" s="2">
-        <v>140400953111</v>
+        <v>139545055387</v>
       </c>
       <c r="D71" s="3">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2917,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>148.1</v>
+        <v>153.8</v>
       </c>
       <c r="C72" s="2">
-        <v>17485743260</v>
+        <v>17119043354</v>
       </c>
       <c r="D72" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>235.29</v>
+        <v>234.59</v>
       </c>
       <c r="C73" s="2">
-        <v>550964126729</v>
+        <v>537477499190</v>
       </c>
       <c r="D73" s="3">
         <v>42</v>
@@ -2945,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>35</v>
+        <v>33.773</v>
       </c>
       <c r="C74" s="2">
-        <v>50838181143</v>
+        <v>48883506430</v>
       </c>
       <c r="D74" s="3">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>38.86</v>
+        <v>37.4</v>
       </c>
       <c r="C75" s="2">
-        <v>9740155392</v>
+        <v>9401612495</v>
       </c>
       <c r="D75" s="3">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2973,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>104.2</v>
+        <v>101.91</v>
       </c>
       <c r="C76" s="2">
-        <v>15903541819</v>
+        <v>15930523675</v>
       </c>
       <c r="D76" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2987,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>62.4</v>
+        <v>59.929</v>
       </c>
       <c r="C77" s="2">
-        <v>131995362801</v>
+        <v>124399542382</v>
       </c>
       <c r="D77" s="3">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>36.14</v>
+        <v>35.26</v>
       </c>
       <c r="C78" s="2">
-        <v>17724814752</v>
+        <v>17921978746</v>
       </c>
       <c r="D78" s="3">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3015,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>56.22</v>
+        <v>55.884</v>
       </c>
       <c r="C79" s="2">
-        <v>16856142962</v>
+        <v>16056810016</v>
       </c>
       <c r="D79" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3029,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>37.97</v>
+        <v>38.8</v>
       </c>
       <c r="C80" s="2">
-        <v>33985156594</v>
+        <v>33184886471</v>
       </c>
       <c r="D80" s="3">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>183.57</v>
+        <v>185.17</v>
       </c>
       <c r="C81" s="2">
-        <v>101654772314</v>
+        <v>96396454874</v>
       </c>
       <c r="D81" s="3">
         <v>53</v>
@@ -3057,13 +3057,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>160.67</v>
+        <v>158.18</v>
       </c>
       <c r="C82" s="2">
-        <v>70195607977</v>
+        <v>71704101986</v>
       </c>
       <c r="D82" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3071,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>88.27</v>
+        <v>88.462</v>
       </c>
       <c r="C83" s="2">
-        <v>9458344982</v>
+        <v>9539948117</v>
       </c>
       <c r="D83" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3085,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>66.44</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C84" s="2">
-        <v>22463831463</v>
+        <v>22249971864</v>
       </c>
       <c r="D84" s="3">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,10 +3099,10 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>159.74</v>
+        <v>160.646</v>
       </c>
       <c r="C85" s="2">
-        <v>71084076169</v>
+        <v>68713248205</v>
       </c>
       <c r="D85" s="3">
         <v>61</v>
@@ -3113,13 +3113,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>22.64</v>
+        <v>22.073</v>
       </c>
       <c r="C86" s="2">
-        <v>16212066918</v>
+        <v>16398431915</v>
       </c>
       <c r="D86" s="3">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>122.27</v>
+        <v>122.96</v>
       </c>
       <c r="C87" s="2">
-        <v>33987593955</v>
+        <v>33847611548</v>
       </c>
       <c r="D87" s="3">
         <v>80</v>
@@ -3141,13 +3141,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>138.27</v>
+        <v>130.84</v>
       </c>
       <c r="C88" s="2">
-        <v>19483916558</v>
+        <v>18711054946</v>
       </c>
       <c r="D88" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3155,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>136.71</v>
+        <v>131.501</v>
       </c>
       <c r="C89" s="2">
-        <v>15785188406</v>
+        <v>15480096323</v>
       </c>
       <c r="D89" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3169,13 +3169,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>77.48</v>
+        <v>76.13</v>
       </c>
       <c r="C90" s="2">
-        <v>22984510500</v>
+        <v>24028068566</v>
       </c>
       <c r="D90" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3183,13 +3183,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>39.77</v>
+        <v>40.7</v>
       </c>
       <c r="C91" s="2">
-        <v>8415593441</v>
+        <v>8564342872</v>
       </c>
       <c r="D91" s="3">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>37</v>
+        <v>36.18</v>
       </c>
       <c r="C92" s="2">
-        <v>16085202573</v>
+        <v>15272467331</v>
       </c>
       <c r="D92" s="3">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3211,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>89.36</v>
+        <v>88.78100000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>21914925550</v>
+        <v>21672382341</v>
       </c>
       <c r="D93" s="3">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>94.17</v>
+        <v>93.67100000000001</v>
       </c>
       <c r="C94" s="2">
-        <v>13095738103</v>
+        <v>13219406570</v>
       </c>
       <c r="D94" s="3">
         <v>105</v>
@@ -3239,10 +3239,10 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>687.11</v>
+        <v>681.37</v>
       </c>
       <c r="C95" s="2">
-        <v>135108652655</v>
+        <v>134509526372</v>
       </c>
       <c r="D95" s="3">
         <v>14</v>
@@ -3253,13 +3253,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>223.03</v>
+        <v>219.308</v>
       </c>
       <c r="C96" s="2">
-        <v>77634000491</v>
+        <v>76284695188</v>
       </c>
       <c r="D96" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>82.56</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="C97" s="2">
-        <v>13526544968</v>
+        <v>13332140935</v>
       </c>
       <c r="D97" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3281,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>86.29000000000001</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2">
-        <v>75303939735</v>
+        <v>74167289722</v>
       </c>
       <c r="D98" s="3">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3295,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>207.8</v>
+        <v>201.58</v>
       </c>
       <c r="C99" s="2">
-        <v>26306037365</v>
+        <v>25621909842</v>
       </c>
       <c r="D99" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3309,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>54.31</v>
+        <v>54.52</v>
       </c>
       <c r="C100" s="2">
-        <v>7640404693</v>
+        <v>7608338876</v>
       </c>
       <c r="D100" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>51.185</v>
+        <v>50.835</v>
       </c>
       <c r="C101" s="2">
-        <v>239239654030</v>
+        <v>233952740906</v>
       </c>
       <c r="D101" s="3">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3337,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>190.35</v>
+        <v>192.17</v>
       </c>
       <c r="C102" s="2">
-        <v>67408963767</v>
+        <v>68218977180</v>
       </c>
       <c r="D102" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,10 +3351,10 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1319.13</v>
+        <v>1363.92</v>
       </c>
       <c r="C103" s="2">
-        <v>37237177611</v>
+        <v>37449374278</v>
       </c>
       <c r="D103" s="3">
         <v>7</v>
@@ -3365,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>223.33</v>
+        <v>219.1</v>
       </c>
       <c r="C104" s="2">
-        <v>34071250074</v>
+        <v>32814726496</v>
       </c>
       <c r="D104" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,13 +3379,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>62.12</v>
+        <v>61.27</v>
       </c>
       <c r="C105" s="2">
-        <v>17862313816</v>
+        <v>17378892512</v>
       </c>
       <c r="D105" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3393,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>63.27</v>
+        <v>60.462</v>
       </c>
       <c r="C106" s="2">
-        <v>36001556618</v>
+        <v>35976194832</v>
       </c>
       <c r="D106" s="3">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3407,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>21.9</v>
+        <v>22.56</v>
       </c>
       <c r="C107" s="2">
-        <v>12016446200</v>
+        <v>12356031928</v>
       </c>
       <c r="D107" s="3">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,13 +3421,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>95.68000000000001</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="C108" s="2">
-        <v>44069707202</v>
+        <v>42560941243</v>
       </c>
       <c r="D108" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3435,13 +3435,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>17.74</v>
+        <v>17.34</v>
       </c>
       <c r="C109" s="2">
-        <v>7099255194</v>
+        <v>7053184613</v>
       </c>
       <c r="D109" s="3">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3449,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>356.1</v>
+        <v>341.55</v>
       </c>
       <c r="C110" s="2">
-        <v>18663227804</v>
+        <v>18593602100</v>
       </c>
       <c r="D110" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3463,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>44</v>
+        <v>44.571</v>
       </c>
       <c r="C111" s="2">
-        <v>49308973920</v>
+        <v>46744017652</v>
       </c>
       <c r="D111" s="3">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3477,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>387.622</v>
+        <v>375.58</v>
       </c>
       <c r="C112" s="2">
-        <v>169257541378</v>
+        <v>167454333587</v>
       </c>
       <c r="D112" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3491,13 +3491,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>7.18</v>
+        <v>7.005</v>
       </c>
       <c r="C113" s="2">
-        <v>5667219411</v>
+        <v>5397482496</v>
       </c>
       <c r="D113" s="3">
-        <v>1378</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3505,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>49.59</v>
+        <v>49.06</v>
       </c>
       <c r="C114" s="2">
-        <v>14780100155</v>
+        <v>14891341010</v>
       </c>
       <c r="D114" s="3">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3519,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>117.77</v>
+        <v>116.031</v>
       </c>
       <c r="C115" s="2">
-        <v>27344503323</v>
+        <v>28397985924</v>
       </c>
       <c r="D115" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>223.98</v>
+        <v>223.59</v>
       </c>
       <c r="C116" s="2">
-        <v>211887585316</v>
+        <v>207666427586</v>
       </c>
       <c r="D116" s="3">
         <v>44</v>
@@ -3547,13 +3547,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>45.82</v>
+        <v>44.55</v>
       </c>
       <c r="C117" s="2">
-        <v>188541962415</v>
+        <v>189879639880</v>
       </c>
       <c r="D117" s="3">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3561,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>93.44799999999999</v>
+        <v>93.06</v>
       </c>
       <c r="C118" s="2">
-        <v>71787093935</v>
+        <v>72048721357</v>
       </c>
       <c r="D118" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,10 +3575,10 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>351.432</v>
+        <v>346.98</v>
       </c>
       <c r="C119" s="2">
-        <v>36755696063</v>
+        <v>37004157464</v>
       </c>
       <c r="D119" s="3">
         <v>28</v>
@@ -3592,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12638277731</v>
+        <v>12378774014</v>
       </c>
       <c r="D120" s="3">
         <v>900</v>
@@ -3603,10 +3603,10 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>79.526</v>
+        <v>79.822</v>
       </c>
       <c r="C121" s="2">
-        <v>42183915758</v>
+        <v>42624946917</v>
       </c>
       <c r="D121" s="3">
         <v>124</v>
@@ -3617,13 +3617,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>39.14</v>
+        <v>39.71</v>
       </c>
       <c r="C122" s="2">
-        <v>28956395205</v>
+        <v>29020904094</v>
       </c>
       <c r="D122" s="3">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3631,13 +3631,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>133.7</v>
+        <v>128.55</v>
       </c>
       <c r="C123" s="2">
-        <v>16782721015</v>
+        <v>15829136096</v>
       </c>
       <c r="D123" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3645,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>75.23</v>
+        <v>73.12</v>
       </c>
       <c r="C124" s="2">
-        <v>98020781726</v>
+        <v>94007119418</v>
       </c>
       <c r="D124" s="3">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,13 +3659,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>97.84</v>
+        <v>91.608</v>
       </c>
       <c r="C125" s="2">
-        <v>176241345376</v>
+        <v>178015486174</v>
       </c>
       <c r="D125" s="3">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3673,13 +3673,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>64.93000000000001</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="C126" s="2">
-        <v>12594486231</v>
+        <v>12603674786</v>
       </c>
       <c r="D126" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3687,13 +3687,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>74.95999999999999</v>
+        <v>76.34</v>
       </c>
       <c r="C127" s="2">
-        <v>63627401396</v>
+        <v>60771229775</v>
       </c>
       <c r="D127" s="3">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>43.33</v>
+        <v>43.25</v>
       </c>
       <c r="C128" s="2">
-        <v>28303116546</v>
+        <v>27394323030</v>
       </c>
       <c r="D128" s="3">
         <v>228</v>
@@ -3715,13 +3715,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>69.54000000000001</v>
+        <v>67.08</v>
       </c>
       <c r="C129" s="2">
-        <v>49858630681</v>
+        <v>49996812451</v>
       </c>
       <c r="D129" s="3">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>260.38</v>
+        <v>256.202</v>
       </c>
       <c r="C130" s="2">
-        <v>83359971238</v>
+        <v>80901362983</v>
       </c>
       <c r="D130" s="3">
         <v>38</v>
@@ -3743,13 +3743,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>84.52</v>
+        <v>87.37</v>
       </c>
       <c r="C131" s="2">
-        <v>26932118058</v>
+        <v>25912173041</v>
       </c>
       <c r="D131" s="3">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,13 +3757,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>206.8</v>
+        <v>214.1</v>
       </c>
       <c r="C132" s="2">
-        <v>52159259318</v>
+        <v>52452228791</v>
       </c>
       <c r="D132" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>125.65</v>
+        <v>126.04</v>
       </c>
       <c r="C133" s="2">
-        <v>17422450479</v>
+        <v>16677164570</v>
       </c>
       <c r="D133" s="3">
         <v>78</v>
@@ -3785,13 +3785,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>71.25</v>
+        <v>70.12</v>
       </c>
       <c r="C134" s="2">
-        <v>26499156639</v>
+        <v>25580368824</v>
       </c>
       <c r="D134" s="3">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3799,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>228</v>
+        <v>232.73</v>
       </c>
       <c r="C135" s="2">
-        <v>161550798302</v>
+        <v>164118424752</v>
       </c>
       <c r="D135" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3813,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>161.61</v>
+        <v>179.818</v>
       </c>
       <c r="C136" s="2">
-        <v>281536793057</v>
+        <v>327901897356</v>
       </c>
       <c r="D136" s="3">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3827,13 +3827,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>28.995</v>
+        <v>29.7</v>
       </c>
       <c r="C137" s="2">
-        <v>13324644785</v>
+        <v>13260074341</v>
       </c>
       <c r="D137" s="3">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>25.9</v>
+        <v>25.87</v>
       </c>
       <c r="C138" s="2">
-        <v>13367702541</v>
+        <v>13381738909</v>
       </c>
       <c r="D138" s="3">
         <v>382</v>
@@ -3855,13 +3855,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>37.6</v>
+        <v>36.173</v>
       </c>
       <c r="C139" s="2">
-        <v>10468041775</v>
+        <v>10609284679</v>
       </c>
       <c r="D139" s="3">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3869,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>130.98</v>
+        <v>133.14</v>
       </c>
       <c r="C140" s="2">
-        <v>37237960847</v>
+        <v>36422504278</v>
       </c>
       <c r="D140" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,13 +3883,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>109.8</v>
+        <v>106.56</v>
       </c>
       <c r="C141" s="2">
-        <v>26265803635</v>
+        <v>25639139634</v>
       </c>
       <c r="D141" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3897,13 +3897,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>127.28</v>
+        <v>123.06</v>
       </c>
       <c r="C142" s="2">
-        <v>17633913359</v>
+        <v>17615189676</v>
       </c>
       <c r="D142" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>56.71</v>
+        <v>55.17</v>
       </c>
       <c r="C143" s="2">
-        <v>41882319019</v>
+        <v>40502534215</v>
       </c>
       <c r="D143" s="3">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,13 +3925,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>399.88</v>
+        <v>392.27</v>
       </c>
       <c r="C144" s="2">
-        <v>15959847713</v>
+        <v>15809848748</v>
       </c>
       <c r="D144" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3939,13 +3939,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>38.48</v>
+        <v>38.94</v>
       </c>
       <c r="C145" s="2">
-        <v>14809202760</v>
+        <v>14793832346</v>
       </c>
       <c r="D145" s="3">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3953,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>121.14</v>
+        <v>113.41</v>
       </c>
       <c r="C146" s="2">
-        <v>15506369472</v>
+        <v>14667555273</v>
       </c>
       <c r="D146" s="3">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>126.75</v>
+        <v>126.608</v>
       </c>
       <c r="C147" s="2">
-        <v>23985264098</v>
+        <v>24183440114</v>
       </c>
       <c r="D147" s="3">
         <v>78</v>
@@ -3981,13 +3981,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>92.59</v>
+        <v>94.86</v>
       </c>
       <c r="C148" s="2">
-        <v>68776407921</v>
+        <v>67533997189</v>
       </c>
       <c r="D148" s="3">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,13 +3995,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>113.37</v>
+        <v>115.1</v>
       </c>
       <c r="C149" s="2">
-        <v>12974703007</v>
+        <v>12949564020</v>
       </c>
       <c r="D149" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4009,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>16.79</v>
+        <v>16.672</v>
       </c>
       <c r="C150" s="2">
-        <v>6358295774</v>
+        <v>6200671668</v>
       </c>
       <c r="D150" s="3">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4023,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>25.14</v>
+        <v>24.98</v>
       </c>
       <c r="C151" s="2">
-        <v>6386610950</v>
+        <v>6230144318</v>
       </c>
       <c r="D151" s="3">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>355.22</v>
+        <v>359.69</v>
       </c>
       <c r="C152" s="2">
-        <v>33881671104</v>
+        <v>33074872919</v>
       </c>
       <c r="D152" s="3">
         <v>27</v>
@@ -4051,13 +4051,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>136.102</v>
+        <v>139.656</v>
       </c>
       <c r="C153" s="2">
-        <v>40426694238</v>
+        <v>41137428657</v>
       </c>
       <c r="D153" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4065,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>51.966</v>
+        <v>49.649</v>
       </c>
       <c r="C154" s="2">
-        <v>34356354679</v>
+        <v>35129303167</v>
       </c>
       <c r="D154" s="3">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4079,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>231.08</v>
+        <v>230.097</v>
       </c>
       <c r="C155" s="2">
-        <v>65842209053</v>
+        <v>65565076945</v>
       </c>
       <c r="D155" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,10 +4093,10 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>75.75</v>
+        <v>75.65900000000001</v>
       </c>
       <c r="C156" s="2">
-        <v>25391053100</v>
+        <v>24877899488</v>
       </c>
       <c r="D156" s="3">
         <v>130</v>
@@ -4107,13 +4107,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>188.5</v>
+        <v>195.4</v>
       </c>
       <c r="C157" s="2">
-        <v>22475607350</v>
+        <v>24009339840</v>
       </c>
       <c r="D157" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,13 +4121,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>63.79</v>
+        <v>62.98</v>
       </c>
       <c r="C158" s="2">
-        <v>24361407584</v>
+        <v>23979955710</v>
       </c>
       <c r="D158" s="3">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>255.11</v>
+        <v>256.4</v>
       </c>
       <c r="C159" s="2">
-        <v>57904918266</v>
+        <v>56570785785</v>
       </c>
       <c r="D159" s="3">
         <v>38</v>
@@ -4149,13 +4149,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>105.15</v>
+        <v>106.91</v>
       </c>
       <c r="C160" s="2">
-        <v>14415393786</v>
+        <v>13940109564</v>
       </c>
       <c r="D160" s="3">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4163,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>81.88</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="C161" s="2">
-        <v>49849576136</v>
+        <v>50816628021</v>
       </c>
       <c r="D161" s="3">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4177,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>56.42</v>
+        <v>55.47</v>
       </c>
       <c r="C162" s="2">
-        <v>32352116660</v>
+        <v>32321423773</v>
       </c>
       <c r="D162" s="3">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>690.08</v>
+        <v>674.02</v>
       </c>
       <c r="C163" s="2">
-        <v>62917168956</v>
+        <v>62021289992</v>
       </c>
       <c r="D163" s="3">
         <v>14</v>
@@ -4205,13 +4205,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>60.75</v>
+        <v>59.105</v>
       </c>
       <c r="C164" s="2">
-        <v>22986340489</v>
+        <v>22150872550</v>
       </c>
       <c r="D164" s="3">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4219,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>87.3</v>
+        <v>88.73</v>
       </c>
       <c r="C165" s="2">
-        <v>29711919465</v>
+        <v>30214506842</v>
       </c>
       <c r="D165" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4233,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>254.77</v>
+        <v>251.14</v>
       </c>
       <c r="C166" s="2">
-        <v>16030841514</v>
+        <v>16215382704</v>
       </c>
       <c r="D166" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4247,13 +4247,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>49.31</v>
+        <v>50.65</v>
       </c>
       <c r="C167" s="2">
-        <v>11308351561</v>
+        <v>11187552352</v>
       </c>
       <c r="D167" s="3">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4261,13 +4261,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>119.9</v>
+        <v>115.91</v>
       </c>
       <c r="C168" s="2">
-        <v>46850536154</v>
+        <v>46493835915</v>
       </c>
       <c r="D168" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4275,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>107.8</v>
+        <v>105.44</v>
       </c>
       <c r="C169" s="2">
-        <v>21693535776</v>
+        <v>21291533509</v>
       </c>
       <c r="D169" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4289,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>56.8</v>
+        <v>56.12</v>
       </c>
       <c r="C170" s="2">
-        <v>12827375406</v>
+        <v>12969649105</v>
       </c>
       <c r="D170" s="3">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4303,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>90.33</v>
+        <v>88.3</v>
       </c>
       <c r="C171" s="2">
-        <v>55790217345</v>
+        <v>52662076662</v>
       </c>
       <c r="D171" s="3">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4317,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>42.747</v>
+        <v>40.82</v>
       </c>
       <c r="C172" s="2">
-        <v>41215873670</v>
+        <v>40437178911</v>
       </c>
       <c r="D172" s="3">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>91.91</v>
+        <v>92.291</v>
       </c>
       <c r="C173" s="2">
-        <v>15736383986</v>
+        <v>15731036367</v>
       </c>
       <c r="D173" s="3">
         <v>107</v>
@@ -4345,13 +4345,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>135.12</v>
+        <v>126.841</v>
       </c>
       <c r="C174" s="2">
-        <v>18194772754</v>
+        <v>17328862334</v>
       </c>
       <c r="D174" s="3">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4359,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>111.02</v>
+        <v>111.407</v>
       </c>
       <c r="C175" s="2">
-        <v>14770450712</v>
+        <v>14945497716</v>
       </c>
       <c r="D175" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4373,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>9.4</v>
+        <v>9.157999999999999</v>
       </c>
       <c r="C176" s="2">
-        <v>35730044152</v>
+        <v>35590270476</v>
       </c>
       <c r="D176" s="3">
-        <v>1053</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4387,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>51</v>
+        <v>51.576</v>
       </c>
       <c r="C177" s="2">
-        <v>7994103011</v>
+        <v>7978431485</v>
       </c>
       <c r="D177" s="3">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,13 +4401,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>49.56</v>
+        <v>49.764</v>
       </c>
       <c r="C178" s="2">
-        <v>28704225337</v>
+        <v>28362782286</v>
       </c>
       <c r="D178" s="3">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4415,13 +4415,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>289.25</v>
+        <v>276.87</v>
       </c>
       <c r="C179" s="2">
-        <v>824097902350</v>
+        <v>783545326558</v>
       </c>
       <c r="D179" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4429,13 +4429,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>87.95999999999999</v>
+        <v>84.47799999999999</v>
       </c>
       <c r="C180" s="2">
-        <v>11979175808</v>
+        <v>12101433376</v>
       </c>
       <c r="D180" s="3">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4443,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>25.3</v>
+        <v>25.36</v>
       </c>
       <c r="C181" s="2">
-        <v>37043455912</v>
+        <v>35901004905</v>
       </c>
       <c r="D181" s="3">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4457,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>301.7</v>
+        <v>298.94</v>
       </c>
       <c r="C182" s="2">
-        <v>79888103659</v>
+        <v>77408298873</v>
       </c>
       <c r="D182" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4471,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>31.46</v>
+        <v>30.846</v>
       </c>
       <c r="C183" s="2">
-        <v>17125866455</v>
+        <v>16889192329</v>
       </c>
       <c r="D183" s="3">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>172.8</v>
+        <v>171.64</v>
       </c>
       <c r="C184" s="2">
-        <v>11078942335</v>
+        <v>10977304582</v>
       </c>
       <c r="D184" s="3">
         <v>57</v>
@@ -4499,13 +4499,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>154.82</v>
+        <v>148.121</v>
       </c>
       <c r="C185" s="2">
-        <v>93895789665</v>
+        <v>92788095813</v>
       </c>
       <c r="D185" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4513,13 +4513,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>115.75</v>
+        <v>117.417</v>
       </c>
       <c r="C186" s="2">
-        <v>79779173784</v>
+        <v>79885023575</v>
       </c>
       <c r="D186" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4527,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>28.48</v>
+        <v>28.34</v>
       </c>
       <c r="C187" s="2">
-        <v>20573647332</v>
+        <v>20122334481</v>
       </c>
       <c r="D187" s="3">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4541,13 +4541,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>42.11</v>
+        <v>43.83</v>
       </c>
       <c r="C188" s="2">
-        <v>5617358142</v>
+        <v>5715172082</v>
       </c>
       <c r="D188" s="3">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4555,13 +4555,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>38.31</v>
+        <v>36.9</v>
       </c>
       <c r="C189" s="2">
-        <v>4883526256</v>
+        <v>4818806462</v>
       </c>
       <c r="D189" s="3">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4569,13 +4569,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>286.32</v>
+        <v>278.5</v>
       </c>
       <c r="C190" s="2">
-        <v>23201941550</v>
+        <v>23247633662</v>
       </c>
       <c r="D190" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>118.18</v>
+        <v>117.89</v>
       </c>
       <c r="C191" s="2">
-        <v>15658453231</v>
+        <v>15370890930</v>
       </c>
       <c r="D191" s="3">
         <v>83</v>
@@ -4597,13 +4597,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>29.269</v>
+        <v>29.03</v>
       </c>
       <c r="C192" s="2">
-        <v>18120861317</v>
+        <v>17440115402</v>
       </c>
       <c r="D192" s="3">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,13 +4611,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>29.69</v>
+        <v>29.22</v>
       </c>
       <c r="C193" s="2">
-        <v>17898340517</v>
+        <v>17696257685</v>
       </c>
       <c r="D193" s="3">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4625,13 +4625,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>135.16</v>
+        <v>130.32</v>
       </c>
       <c r="C194" s="2">
-        <v>19887850448</v>
+        <v>19398965112</v>
       </c>
       <c r="D194" s="3">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4639,13 +4639,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>94.56</v>
+        <v>93.435</v>
       </c>
       <c r="C195" s="2">
-        <v>7241527533</v>
+        <v>6891942044</v>
       </c>
       <c r="D195" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4653,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>10.36</v>
+        <v>10.032</v>
       </c>
       <c r="C196" s="2">
-        <v>4640978310</v>
+        <v>4404026534</v>
       </c>
       <c r="D196" s="3">
-        <v>955</v>
+        <v>986</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4667,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>131.41</v>
+        <v>127.65</v>
       </c>
       <c r="C197" s="2">
-        <v>21687969706</v>
+        <v>20861914914</v>
       </c>
       <c r="D197" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4681,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>69.7</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="C198" s="2">
-        <v>23618533742</v>
+        <v>23881179017</v>
       </c>
       <c r="D198" s="3">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4695,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>157.21</v>
+        <v>152.391</v>
       </c>
       <c r="C199" s="2">
-        <v>43152288931</v>
+        <v>43959109536</v>
       </c>
       <c r="D199" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4709,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>11.55</v>
+        <v>11.334</v>
       </c>
       <c r="C200" s="2">
-        <v>102550960388</v>
+        <v>100397484435</v>
       </c>
       <c r="D200" s="3">
-        <v>857</v>
+        <v>873</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4723,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>61.7</v>
+        <v>62.73</v>
       </c>
       <c r="C201" s="2">
-        <v>78503784370</v>
+        <v>78806838697</v>
       </c>
       <c r="D201" s="3">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4737,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>59.46</v>
+        <v>60.17</v>
       </c>
       <c r="C202" s="2">
-        <v>36610892614</v>
+        <v>36593835841</v>
       </c>
       <c r="D202" s="3">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>98.09999999999999</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="C203" s="2">
-        <v>10272073926</v>
+        <v>10027906972</v>
       </c>
       <c r="D203" s="3">
         <v>100</v>
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>38.27</v>
+        <v>36.997</v>
       </c>
       <c r="C204" s="2">
-        <v>29527692768</v>
+        <v>27339414847</v>
       </c>
       <c r="D204" s="3">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4779,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>44.23</v>
+        <v>42.85</v>
       </c>
       <c r="C205" s="2">
-        <v>63647959448</v>
+        <v>61640655977</v>
       </c>
       <c r="D205" s="3">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>1781.9</v>
+        <v>1831.467</v>
       </c>
       <c r="C206" s="2">
-        <v>1153029672420</v>
+        <v>1159610834698</v>
       </c>
       <c r="D206" s="3">
         <v>5</v>
@@ -4807,10 +4807,10 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>1836.13</v>
+        <v>1831.33</v>
       </c>
       <c r="C207" s="2">
-        <v>1149172811717</v>
+        <v>1139461439167</v>
       </c>
       <c r="D207" s="3">
         <v>5</v>
@@ -4821,13 +4821,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>99.27</v>
+        <v>97.48</v>
       </c>
       <c r="C208" s="2">
-        <v>14655731338</v>
+        <v>14529066112</v>
       </c>
       <c r="D208" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,13 +4835,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>201.82</v>
+        <v>195.025</v>
       </c>
       <c r="C209" s="2">
-        <v>60059841726</v>
+        <v>59014747724</v>
       </c>
       <c r="D209" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4849,13 +4849,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>22.38</v>
+        <v>21.49</v>
       </c>
       <c r="C210" s="2">
-        <v>8221658729</v>
+        <v>8141553743</v>
       </c>
       <c r="D210" s="3">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>124.15</v>
+        <v>123.79</v>
       </c>
       <c r="C211" s="2">
-        <v>23387987469</v>
+        <v>22686220116</v>
       </c>
       <c r="D211" s="3">
         <v>79</v>
@@ -4877,13 +4877,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>253.5</v>
+        <v>239.19</v>
       </c>
       <c r="C212" s="2">
-        <v>85397853842</v>
+        <v>85376442968</v>
       </c>
       <c r="D212" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4891,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>417.92</v>
+        <v>411</v>
       </c>
       <c r="C213" s="2">
-        <v>21653829900</v>
+        <v>22285210356</v>
       </c>
       <c r="D213" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4905,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>20.56</v>
+        <v>20.275</v>
       </c>
       <c r="C214" s="2">
-        <v>18060256102</v>
+        <v>17792175771</v>
       </c>
       <c r="D214" s="3">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4919,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>88.818</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C215" s="2">
-        <v>12421961809</v>
+        <v>12060271321</v>
       </c>
       <c r="D215" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4933,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>13.36</v>
+        <v>13.514</v>
       </c>
       <c r="C216" s="2">
-        <v>13437107354</v>
+        <v>13638677922</v>
       </c>
       <c r="D216" s="3">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4947,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>14.51</v>
+        <v>14.048</v>
       </c>
       <c r="C217" s="2">
-        <v>5091073400</v>
+        <v>4891422118</v>
       </c>
       <c r="D217" s="3">
-        <v>682</v>
+        <v>704</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4961,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>167.86</v>
+        <v>159.73</v>
       </c>
       <c r="C218" s="2">
-        <v>57027130164</v>
+        <v>53868276406</v>
       </c>
       <c r="D218" s="3">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,13 +4975,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>268.26</v>
+        <v>275.97</v>
       </c>
       <c r="C219" s="2">
-        <v>290154293819</v>
+        <v>293570067289</v>
       </c>
       <c r="D219" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4989,13 +4989,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>57.8</v>
+        <v>58.45</v>
       </c>
       <c r="C220" s="2">
-        <v>18412438080</v>
+        <v>17634157287</v>
       </c>
       <c r="D220" s="3">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5003,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>28.55</v>
+        <v>27.6</v>
       </c>
       <c r="C221" s="2">
-        <v>4718867205</v>
+        <v>4552858096</v>
       </c>
       <c r="D221" s="3">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,13 +5017,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>48.5</v>
+        <v>48.545</v>
       </c>
       <c r="C222" s="2">
-        <v>17780069060</v>
+        <v>17133455252</v>
       </c>
       <c r="D222" s="3">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5031,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>176.75</v>
+        <v>180.94</v>
       </c>
       <c r="C223" s="2">
-        <v>7346343940</v>
+        <v>7332170519</v>
       </c>
       <c r="D223" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>109.98</v>
+        <v>109.12</v>
       </c>
       <c r="C224" s="2">
-        <v>30305328058</v>
+        <v>29262049650</v>
       </c>
       <c r="D224" s="3">
         <v>90</v>
@@ -5059,13 +5059,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>79.48</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="C225" s="2">
-        <v>19907839467</v>
+        <v>20038093733</v>
       </c>
       <c r="D225" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5073,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>219.32</v>
+        <v>220.36</v>
       </c>
       <c r="C226" s="2">
-        <v>151718321400</v>
+        <v>154823671134</v>
       </c>
       <c r="D226" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5087,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>12.6</v>
+        <v>12.17</v>
       </c>
       <c r="C227" s="2">
-        <v>16091462032</v>
+        <v>15613324529</v>
       </c>
       <c r="D227" s="3">
-        <v>785</v>
+        <v>813</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5101,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>23.76</v>
+        <v>23.4</v>
       </c>
       <c r="C228" s="2">
-        <v>32978851906</v>
+        <v>31802375113</v>
       </c>
       <c r="D228" s="3">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5115,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>16.64</v>
+        <v>16.44</v>
       </c>
       <c r="C229" s="2">
-        <v>2959058887</v>
+        <v>3023997832</v>
       </c>
       <c r="D229" s="3">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5129,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>47.5</v>
+        <v>49.312</v>
       </c>
       <c r="C230" s="2">
-        <v>25648932208</v>
+        <v>26572020066</v>
       </c>
       <c r="D230" s="3">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5143,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>71.5</v>
+        <v>72.94</v>
       </c>
       <c r="C231" s="2">
-        <v>10323796237</v>
+        <v>10357766573</v>
       </c>
       <c r="D231" s="3">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5157,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>15.22</v>
+        <v>15.04</v>
       </c>
       <c r="C232" s="2">
-        <v>10896550496</v>
+        <v>10503980461</v>
       </c>
       <c r="D232" s="3">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5171,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>152.6</v>
+        <v>151.65</v>
       </c>
       <c r="C233" s="2">
-        <v>22412846841</v>
+        <v>22521049604</v>
       </c>
       <c r="D233" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5185,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>417.17</v>
+        <v>392.372</v>
       </c>
       <c r="C234" s="2">
-        <v>53487466933</v>
+        <v>53591067718</v>
       </c>
       <c r="D234" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5199,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>27.4</v>
+        <v>27.469</v>
       </c>
       <c r="C235" s="2">
-        <v>11796124701</v>
+        <v>11871042107</v>
       </c>
       <c r="D235" s="3">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5213,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>129.65</v>
+        <v>127.56</v>
       </c>
       <c r="C236" s="2">
-        <v>112114207477</v>
+        <v>113677103440</v>
       </c>
       <c r="D236" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>111.2</v>
+        <v>110.639</v>
       </c>
       <c r="C237" s="2">
-        <v>63543626055</v>
+        <v>63259067289</v>
       </c>
       <c r="D237" s="3">
         <v>89</v>
@@ -5241,13 +5241,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>474.85</v>
+        <v>464.401</v>
       </c>
       <c r="C238" s="2">
-        <v>39886912163</v>
+        <v>39936972327</v>
       </c>
       <c r="D238" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,10 +5255,10 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>199.77</v>
+        <v>199.75</v>
       </c>
       <c r="C239" s="2">
-        <v>15191132024</v>
+        <v>15098209975</v>
       </c>
       <c r="D239" s="3">
         <v>49</v>
@@ -5269,13 +5269,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>117.67</v>
+        <v>112.33</v>
       </c>
       <c r="C240" s="2">
-        <v>12371467659</v>
+        <v>12178705563</v>
       </c>
       <c r="D240" s="3">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,10 +5283,10 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>352.5</v>
+        <v>353.2</v>
       </c>
       <c r="C241" s="2">
-        <v>51798165011</v>
+        <v>52262167795</v>
       </c>
       <c r="D241" s="3">
         <v>28</v>
@@ -5297,13 +5297,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>83.17</v>
+        <v>84.87</v>
       </c>
       <c r="C242" s="2">
-        <v>18845964258</v>
+        <v>18147697277</v>
       </c>
       <c r="D242" s="3">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5311,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>94.01000000000001</v>
+        <v>90.63</v>
       </c>
       <c r="C243" s="2">
-        <v>36986448905</v>
+        <v>35956711758</v>
       </c>
       <c r="D243" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,10 +5325,10 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>50.41</v>
+        <v>50.35</v>
       </c>
       <c r="C244" s="2">
-        <v>210974027304</v>
+        <v>211469835708</v>
       </c>
       <c r="D244" s="3">
         <v>196</v>
@@ -5339,10 +5339,10 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>373.41</v>
+        <v>367.18</v>
       </c>
       <c r="C245" s="2">
-        <v>99592419781</v>
+        <v>95986986485</v>
       </c>
       <c r="D245" s="3">
         <v>26</v>
@@ -5353,13 +5353,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>49.17</v>
+        <v>50.44</v>
       </c>
       <c r="C246" s="2">
-        <v>19869292273</v>
+        <v>19097170864</v>
       </c>
       <c r="D246" s="3">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5367,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>23.93</v>
+        <v>24.3</v>
       </c>
       <c r="C247" s="2">
-        <v>9494567114</v>
+        <v>9434163069</v>
       </c>
       <c r="D247" s="3">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5381,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>216.53</v>
+        <v>211.13</v>
       </c>
       <c r="C248" s="2">
-        <v>11133089181</v>
+        <v>11170108214</v>
       </c>
       <c r="D248" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5395,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>173.64</v>
+        <v>166.15</v>
       </c>
       <c r="C249" s="2">
-        <v>32494078266</v>
+        <v>33174922979</v>
       </c>
       <c r="D249" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5409,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>46.73</v>
+        <v>46.411</v>
       </c>
       <c r="C250" s="2">
-        <v>19505596474</v>
+        <v>18899894475</v>
       </c>
       <c r="D250" s="3">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5423,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>30.3</v>
+        <v>31.16</v>
       </c>
       <c r="C251" s="2">
-        <v>8825034768</v>
+        <v>9130088295</v>
       </c>
       <c r="D251" s="3">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5437,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>770.58</v>
+        <v>753.741</v>
       </c>
       <c r="C252" s="2">
-        <v>91679932606</v>
+        <v>91730176645</v>
       </c>
       <c r="D252" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5451,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>156.14</v>
+        <v>157.77</v>
       </c>
       <c r="C253" s="2">
-        <v>14170713320</v>
+        <v>13920274164</v>
       </c>
       <c r="D253" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5465,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>210.79</v>
+        <v>208</v>
       </c>
       <c r="C254" s="2">
-        <v>64147619246</v>
+        <v>66033755880</v>
       </c>
       <c r="D254" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5479,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>17.76</v>
+        <v>17.781</v>
       </c>
       <c r="C255" s="2">
-        <v>8285850465</v>
+        <v>8095339219</v>
       </c>
       <c r="D255" s="3">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5493,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>114.1</v>
+        <v>110.6</v>
       </c>
       <c r="C256" s="2">
-        <v>14344705590</v>
+        <v>14245592647</v>
       </c>
       <c r="D256" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5507,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>143.62</v>
+        <v>140.568</v>
       </c>
       <c r="C257" s="2">
-        <v>14514461716</v>
+        <v>14982447074</v>
       </c>
       <c r="D257" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5521,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>47.57</v>
+        <v>46.32</v>
       </c>
       <c r="C258" s="2">
-        <v>33753004547</v>
+        <v>33319657756</v>
       </c>
       <c r="D258" s="3">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,10 +5535,10 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>156.19</v>
+        <v>155.85</v>
       </c>
       <c r="C259" s="2">
-        <v>12129821481</v>
+        <v>12270449055</v>
       </c>
       <c r="D259" s="3">
         <v>63</v>
@@ -5549,13 +5549,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>156.59</v>
+        <v>158.67</v>
       </c>
       <c r="C260" s="2">
-        <v>411532142007</v>
+        <v>414010046884</v>
       </c>
       <c r="D260" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5563,13 +5563,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>22.48</v>
+        <v>22.504</v>
       </c>
       <c r="C261" s="2">
-        <v>7475711456</v>
+        <v>7329104360</v>
       </c>
       <c r="D261" s="3">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,13 +5577,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>123.16</v>
+        <v>121.735</v>
       </c>
       <c r="C262" s="2">
-        <v>368323138825</v>
+        <v>373823654694</v>
       </c>
       <c r="D262" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5591,13 +5591,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>64.33</v>
+        <v>64.125</v>
       </c>
       <c r="C263" s="2">
-        <v>21330897048</v>
+        <v>21890937541</v>
       </c>
       <c r="D263" s="3">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5605,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>16.66</v>
+        <v>16.42</v>
       </c>
       <c r="C264" s="2">
-        <v>15959453412</v>
+        <v>15789454114</v>
       </c>
       <c r="D264" s="3">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,10 +5619,10 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>129.69</v>
+        <v>129.32</v>
       </c>
       <c r="C265" s="2">
-        <v>23593897519</v>
+        <v>24604919217</v>
       </c>
       <c r="D265" s="3">
         <v>76</v>
@@ -5633,13 +5633,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>34.94</v>
+        <v>34.49</v>
       </c>
       <c r="C266" s="2">
-        <v>42513453032</v>
+        <v>42248963283</v>
       </c>
       <c r="D266" s="3">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5647,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>15.29</v>
+        <v>14.81</v>
       </c>
       <c r="C267" s="2">
-        <v>6439741016</v>
+        <v>6404329497</v>
       </c>
       <c r="D267" s="3">
-        <v>647</v>
+        <v>668</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,10 +5661,10 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>258.19</v>
+        <v>259.86</v>
       </c>
       <c r="C268" s="2">
-        <v>41004304518</v>
+        <v>39720216284</v>
       </c>
       <c r="D268" s="3">
         <v>38</v>
@@ -5675,13 +5675,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>134.07</v>
+        <v>139.7</v>
       </c>
       <c r="C269" s="2">
-        <v>46242069817</v>
+        <v>47242733003</v>
       </c>
       <c r="D269" s="3">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5689,13 +5689,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>14.97</v>
+        <v>14.696</v>
       </c>
       <c r="C270" s="2">
-        <v>35027501889</v>
+        <v>34521106750</v>
       </c>
       <c r="D270" s="3">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5703,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>95.08</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C271" s="2">
-        <v>15766578973</v>
+        <v>15814460166</v>
       </c>
       <c r="D271" s="3">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5717,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>54.44</v>
+        <v>54.96</v>
       </c>
       <c r="C272" s="2">
-        <v>237647922826</v>
+        <v>237009055467</v>
       </c>
       <c r="D272" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5731,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>32.1</v>
+        <v>31.281</v>
       </c>
       <c r="C273" s="2">
-        <v>25371214284</v>
+        <v>24790467953</v>
       </c>
       <c r="D273" s="3">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5745,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>40.73</v>
+        <v>38</v>
       </c>
       <c r="C274" s="2">
-        <v>6218658460</v>
+        <v>6019836362</v>
       </c>
       <c r="D274" s="3">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5759,13 +5759,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>199.7</v>
+        <v>196.47</v>
       </c>
       <c r="C275" s="2">
-        <v>18939872136</v>
+        <v>19153185508</v>
       </c>
       <c r="D275" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5773,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>43.88</v>
+        <v>45.699</v>
       </c>
       <c r="C276" s="2">
-        <v>12452348617</v>
+        <v>12024499168</v>
       </c>
       <c r="D276" s="3">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5787,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>42.7</v>
+        <v>40.347</v>
       </c>
       <c r="C277" s="2">
-        <v>11521015076</v>
+        <v>11655770584</v>
       </c>
       <c r="D277" s="3">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5801,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>106.48</v>
+        <v>108.38</v>
       </c>
       <c r="C278" s="2">
-        <v>15469121446</v>
+        <v>15639200433</v>
       </c>
       <c r="D278" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5815,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>43.97</v>
+        <v>42.06</v>
       </c>
       <c r="C279" s="2">
-        <v>5676335569</v>
+        <v>5786739296</v>
       </c>
       <c r="D279" s="3">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,13 +5829,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>73.22</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="C280" s="2">
-        <v>22493677017</v>
+        <v>22939560205</v>
       </c>
       <c r="D280" s="3">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5843,10 +5843,10 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>208.25</v>
+        <v>209.703</v>
       </c>
       <c r="C281" s="2">
-        <v>20728829430</v>
+        <v>20000493252</v>
       </c>
       <c r="D281" s="3">
         <v>47</v>
@@ -5857,10 +5857,10 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>190.6</v>
+        <v>193.6</v>
       </c>
       <c r="C282" s="2">
-        <v>40132757432</v>
+        <v>41088780808</v>
       </c>
       <c r="D282" s="3">
         <v>51</v>
@@ -5871,13 +5871,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>253.96</v>
+        <v>252.98</v>
       </c>
       <c r="C283" s="2">
-        <v>132332777430</v>
+        <v>136913026237</v>
       </c>
       <c r="D283" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5885,13 +5885,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>36.6</v>
+        <v>37.26</v>
       </c>
       <c r="C284" s="2">
-        <v>11439458129</v>
+        <v>11137324384</v>
       </c>
       <c r="D284" s="3">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5899,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>165</v>
+        <v>165.08</v>
       </c>
       <c r="C285" s="2">
-        <v>159701329829</v>
+        <v>153621016890</v>
       </c>
       <c r="D285" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5913,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>369.86</v>
+        <v>362.95</v>
       </c>
       <c r="C286" s="2">
-        <v>100145556594</v>
+        <v>103877305677</v>
       </c>
       <c r="D286" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5927,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>53.03</v>
+        <v>52.75</v>
       </c>
       <c r="C287" s="2">
-        <v>10388478423</v>
+        <v>9964518602</v>
       </c>
       <c r="D287" s="3">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5941,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>54.31</v>
+        <v>54</v>
       </c>
       <c r="C288" s="2">
-        <v>13227553374</v>
+        <v>13406260462</v>
       </c>
       <c r="D288" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5955,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>161.32</v>
+        <v>159.45</v>
       </c>
       <c r="C289" s="2">
-        <v>122996116004</v>
+        <v>121657780365</v>
       </c>
       <c r="D289" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,13 +5969,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>512</v>
+        <v>485.735</v>
       </c>
       <c r="C290" s="2">
-        <v>70759378460</v>
+        <v>71177019734</v>
       </c>
       <c r="D290" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,13 +5983,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>49.1</v>
+        <v>46.41</v>
       </c>
       <c r="C291" s="2">
-        <v>28045051205</v>
+        <v>27844818378</v>
       </c>
       <c r="D291" s="3">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5997,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>59.1</v>
+        <v>57.551</v>
       </c>
       <c r="C292" s="2">
-        <v>44330764870</v>
+        <v>44022727423</v>
       </c>
       <c r="D292" s="3">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6011,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>76.41</v>
+        <v>78.36</v>
       </c>
       <c r="C293" s="2">
-        <v>11427310668</v>
+        <v>11477189234</v>
       </c>
       <c r="D293" s="3">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6025,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>89.23999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C294" s="2">
-        <v>30622093671</v>
+        <v>30116463982</v>
       </c>
       <c r="D294" s="3">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6039,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>74.06999999999999</v>
+        <v>72.91</v>
       </c>
       <c r="C295" s="2">
-        <v>16337696855</v>
+        <v>15727147833</v>
       </c>
       <c r="D295" s="3">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6053,13 +6053,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>345.81</v>
+        <v>328.6</v>
       </c>
       <c r="C296" s="2">
-        <v>340176537719</v>
+        <v>337365897559</v>
       </c>
       <c r="D296" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6067,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>125.89</v>
+        <v>124.453</v>
       </c>
       <c r="C297" s="2">
-        <v>14197535542</v>
+        <v>14001143836</v>
       </c>
       <c r="D297" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6081,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>138.13</v>
+        <v>130.5</v>
       </c>
       <c r="C298" s="2">
-        <v>43310337275</v>
+        <v>41695046125</v>
       </c>
       <c r="D298" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>55.03</v>
+        <v>57.1</v>
       </c>
       <c r="C299" s="2">
-        <v>14661705212</v>
+        <v>14622326401</v>
       </c>
       <c r="D299" s="3">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6109,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>213.92</v>
+        <v>215.98</v>
       </c>
       <c r="C300" s="2">
-        <v>160301277529</v>
+        <v>156473283460</v>
       </c>
       <c r="D300" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6123,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>144.1</v>
+        <v>142.032</v>
       </c>
       <c r="C301" s="2">
-        <v>37115703282</v>
+        <v>37383390494</v>
       </c>
       <c r="D301" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6137,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>183.94</v>
+        <v>179.87</v>
       </c>
       <c r="C302" s="2">
-        <v>29935836922</v>
+        <v>29183206761</v>
       </c>
       <c r="D302" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,10 +6151,10 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>280.64</v>
+        <v>275.44</v>
       </c>
       <c r="C303" s="2">
-        <v>52484531877</v>
+        <v>53030829989</v>
       </c>
       <c r="D303" s="3">
         <v>35</v>
@@ -6165,13 +6165,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>57.89</v>
+        <v>58.89</v>
       </c>
       <c r="C304" s="2">
-        <v>85154554431</v>
+        <v>83806559654</v>
       </c>
       <c r="D304" s="3">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6179,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>118.21</v>
+        <v>117.33</v>
       </c>
       <c r="C305" s="2">
-        <v>155322813636</v>
+        <v>156069016018</v>
       </c>
       <c r="D305" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6193,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>49.2</v>
+        <v>48.447</v>
       </c>
       <c r="C306" s="2">
-        <v>44267903315</v>
+        <v>42695447663</v>
       </c>
       <c r="D306" s="3">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6207,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>31.02</v>
+        <v>31.207</v>
       </c>
       <c r="C307" s="2">
-        <v>15980278122</v>
+        <v>14936627762</v>
       </c>
       <c r="D307" s="3">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6221,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>135.51</v>
+        <v>139.22</v>
       </c>
       <c r="C308" s="2">
-        <v>9671273868</v>
+        <v>9895023422</v>
       </c>
       <c r="D308" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>97.12</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="C309" s="2">
-        <v>12846315009</v>
+        <v>12771358321</v>
       </c>
       <c r="D309" s="3">
         <v>101</v>
@@ -6249,13 +6249,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>571.53</v>
+        <v>547.61</v>
       </c>
       <c r="C310" s="2">
-        <v>21840897114</v>
+        <v>21396984558</v>
       </c>
       <c r="D310" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,10 +6263,10 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>274.24</v>
+        <v>272.62</v>
       </c>
       <c r="C311" s="2">
-        <v>17051690705</v>
+        <v>16665949101</v>
       </c>
       <c r="D311" s="3">
         <v>36</v>
@@ -6277,13 +6277,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>118.63</v>
+        <v>120.81</v>
       </c>
       <c r="C312" s="2">
-        <v>58846176134</v>
+        <v>61295086037</v>
       </c>
       <c r="D312" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6291,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>177.87</v>
+        <v>180.29</v>
       </c>
       <c r="C313" s="2">
-        <v>104461083846</v>
+        <v>103041105196</v>
       </c>
       <c r="D313" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,10 +6305,10 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>89.54000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="C314" s="2">
-        <v>48749818766</v>
+        <v>46726597880</v>
       </c>
       <c r="D314" s="3">
         <v>110</v>
@@ -6319,10 +6319,10 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>43.94</v>
+        <v>43.81</v>
       </c>
       <c r="C315" s="2">
-        <v>80898268815</v>
+        <v>83604718758</v>
       </c>
       <c r="D315" s="3">
         <v>225</v>
@@ -6333,13 +6333,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>22.76</v>
+        <v>22.05</v>
       </c>
       <c r="C316" s="2">
-        <v>8821637836</v>
+        <v>8393954993</v>
       </c>
       <c r="D316" s="3">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6347,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>45.44</v>
+        <v>43.49</v>
       </c>
       <c r="C317" s="2">
-        <v>29070232818</v>
+        <v>28803419046</v>
       </c>
       <c r="D317" s="3">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>84.59999999999999</v>
+        <v>84.56</v>
       </c>
       <c r="C318" s="2">
-        <v>217760318760</v>
+        <v>211045096761</v>
       </c>
       <c r="D318" s="3">
         <v>117</v>
@@ -6375,13 +6375,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>7.5</v>
+        <v>7.335</v>
       </c>
       <c r="C319" s="2">
-        <v>5895033769</v>
+        <v>5659317829</v>
       </c>
       <c r="D319" s="3">
-        <v>1320</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6389,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>65.48</v>
+        <v>64.887</v>
       </c>
       <c r="C320" s="2">
-        <v>117908009066</v>
+        <v>114285750192</v>
       </c>
       <c r="D320" s="3">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>428.8</v>
+        <v>418</v>
       </c>
       <c r="C321" s="2">
-        <v>36270961906</v>
+        <v>34762567588</v>
       </c>
       <c r="D321" s="3">
         <v>23</v>
@@ -6417,13 +6417,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>217.85</v>
+        <v>213.91</v>
       </c>
       <c r="C322" s="2">
-        <v>1648818755104</v>
+        <v>1620166620327</v>
       </c>
       <c r="D322" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6431,13 +6431,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>179.71</v>
+        <v>173.67</v>
       </c>
       <c r="C323" s="2">
-        <v>29716026511</v>
+        <v>28994552523</v>
       </c>
       <c r="D323" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,13 +6445,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>132.19</v>
+        <v>126.93</v>
       </c>
       <c r="C324" s="2">
-        <v>17031293133</v>
+        <v>16778480460</v>
       </c>
       <c r="D324" s="3">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6459,10 +6459,10 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1165.41</v>
+        <v>1175.603</v>
       </c>
       <c r="C325" s="2">
-        <v>27635164126</v>
+        <v>27220396619</v>
       </c>
       <c r="D325" s="3">
         <v>8</v>
@@ -6473,13 +6473,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>71.5</v>
+        <v>70.489</v>
       </c>
       <c r="C326" s="2">
-        <v>80809335856</v>
+        <v>78559228348</v>
       </c>
       <c r="D326" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6487,13 +6487,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>84.69</v>
+        <v>86.89</v>
       </c>
       <c r="C327" s="2">
-        <v>23409840758</v>
+        <v>22920251046</v>
       </c>
       <c r="D327" s="3">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,13 +6501,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.44</v>
+        <v>16.05</v>
       </c>
       <c r="C328" s="2">
-        <v>8832911247</v>
+        <v>8979410807</v>
       </c>
       <c r="D328" s="3">
-        <v>602</v>
+        <v>616</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6515,13 +6515,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.75</v>
+        <v>8.84</v>
       </c>
       <c r="C329" s="2">
-        <v>4174761967</v>
+        <v>4298983973</v>
       </c>
       <c r="D329" s="3">
-        <v>1131</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6529,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>28.81</v>
+        <v>27.056</v>
       </c>
       <c r="C330" s="2">
-        <v>5907201400</v>
+        <v>5847465834</v>
       </c>
       <c r="D330" s="3">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>130.04</v>
+        <v>128.66</v>
       </c>
       <c r="C331" s="2">
-        <v>21318609338</v>
+        <v>20876039724</v>
       </c>
       <c r="D331" s="3">
         <v>76</v>
@@ -6557,10 +6557,10 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>74.70999999999999</v>
+        <v>74.958</v>
       </c>
       <c r="C332" s="2">
-        <v>37589455453</v>
+        <v>36322516505</v>
       </c>
       <c r="D332" s="3">
         <v>132</v>
@@ -6571,13 +6571,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>60.27</v>
+        <v>59.69</v>
       </c>
       <c r="C333" s="2">
-        <v>48578912691</v>
+        <v>48212276285</v>
       </c>
       <c r="D333" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6585,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>522.28</v>
+        <v>505.81</v>
       </c>
       <c r="C334" s="2">
-        <v>227321763942</v>
+        <v>224979260543</v>
       </c>
       <c r="D334" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6599,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>23.23</v>
+        <v>23.13</v>
       </c>
       <c r="C335" s="2">
-        <v>8808304929</v>
+        <v>8872548995</v>
       </c>
       <c r="D335" s="3">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6613,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>142.75</v>
+        <v>137.92</v>
       </c>
       <c r="C336" s="2">
-        <v>180630455862</v>
+        <v>173202885439</v>
       </c>
       <c r="D336" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6627,13 +6627,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>19.797</v>
+        <v>19.999</v>
       </c>
       <c r="C337" s="2">
-        <v>11818482850</v>
+        <v>11817778758</v>
       </c>
       <c r="D337" s="3">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6641,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>18.99</v>
+        <v>19.556</v>
       </c>
       <c r="C338" s="2">
-        <v>7013410014</v>
+        <v>6924908963</v>
       </c>
       <c r="D338" s="3">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,10 +6655,10 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>308.1</v>
+        <v>303</v>
       </c>
       <c r="C339" s="2">
-        <v>50657721456</v>
+        <v>51932164082</v>
       </c>
       <c r="D339" s="3">
         <v>32</v>
@@ -6669,13 +6669,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>15.27</v>
+        <v>14.663</v>
       </c>
       <c r="C340" s="2">
-        <v>5949502898</v>
+        <v>5780683850</v>
       </c>
       <c r="D340" s="3">
-        <v>648</v>
+        <v>675</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,10 +6683,10 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>562</v>
+        <v>557.96</v>
       </c>
       <c r="C341" s="2">
-        <v>106790559797</v>
+        <v>109287421074</v>
       </c>
       <c r="D341" s="3">
         <v>17</v>
@@ -6697,13 +6697,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>34.88</v>
+        <v>33.78</v>
       </c>
       <c r="C342" s="2">
-        <v>8616616710</v>
+        <v>8333289164</v>
       </c>
       <c r="D342" s="3">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,13 +6711,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>243.1</v>
+        <v>238.7</v>
       </c>
       <c r="C343" s="2">
-        <v>66371341557</v>
+        <v>65953209164</v>
       </c>
       <c r="D343" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6725,13 +6725,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>62.82</v>
+        <v>63.24</v>
       </c>
       <c r="C344" s="2">
-        <v>13845772122</v>
+        <v>14165426716</v>
       </c>
       <c r="D344" s="3">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6739,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>95.53</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="C345" s="2">
-        <v>19315245968</v>
+        <v>18746323263</v>
       </c>
       <c r="D345" s="3">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6753,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>59.89</v>
+        <v>56.41</v>
       </c>
       <c r="C346" s="2">
-        <v>18093346067</v>
+        <v>17421256588</v>
       </c>
       <c r="D346" s="3">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,13 +6767,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>536.75</v>
+        <v>516.0700000000001</v>
       </c>
       <c r="C347" s="2">
-        <v>335440698266</v>
+        <v>319763393539</v>
       </c>
       <c r="D347" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4110.52</v>
+        <v>4135.23</v>
       </c>
       <c r="C348" s="2">
-        <v>15022493153</v>
+        <v>15178242218</v>
       </c>
       <c r="D348" s="3">
         <v>2</v>
@@ -6795,13 +6795,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>21.81</v>
+        <v>21.356</v>
       </c>
       <c r="C349" s="2">
-        <v>8960586284</v>
+        <v>8932409586</v>
       </c>
       <c r="D349" s="3">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6809,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>18.865</v>
+        <v>18.476</v>
       </c>
       <c r="C350" s="2">
-        <v>10888052469</v>
+        <v>10813453016</v>
       </c>
       <c r="D350" s="3">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6823,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>18.436</v>
+        <v>18.908</v>
       </c>
       <c r="C351" s="2">
-        <v>11175782331</v>
+        <v>11215499661</v>
       </c>
       <c r="D351" s="3">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6837,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>60.37</v>
+        <v>60.97</v>
       </c>
       <c r="C352" s="2">
-        <v>21985232885</v>
+        <v>21956826092</v>
       </c>
       <c r="D352" s="3">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,13 +6851,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>203.93</v>
+        <v>208.26</v>
       </c>
       <c r="C353" s="2">
-        <v>24208396082</v>
+        <v>24254623537</v>
       </c>
       <c r="D353" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6865,13 +6865,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>43.33</v>
+        <v>42.8</v>
       </c>
       <c r="C354" s="2">
-        <v>19310909392</v>
+        <v>18431638946</v>
       </c>
       <c r="D354" s="3">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,13 +6879,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>64.05</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C355" s="2">
-        <v>13757155178</v>
+        <v>14526649197</v>
       </c>
       <c r="D355" s="3">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6893,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>61.5</v>
+        <v>60.72</v>
       </c>
       <c r="C356" s="2">
-        <v>183173464709</v>
+        <v>179766103826</v>
       </c>
       <c r="D356" s="3">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,10 +6907,10 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>460.04</v>
+        <v>465.74</v>
       </c>
       <c r="C357" s="2">
-        <v>33701263820</v>
+        <v>32861855421</v>
       </c>
       <c r="D357" s="3">
         <v>21</v>
@@ -6921,13 +6921,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>65</v>
+        <v>66.2</v>
       </c>
       <c r="C358" s="2">
-        <v>28546020540</v>
+        <v>28410666610</v>
       </c>
       <c r="D358" s="3">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6935,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>22.14</v>
+        <v>21.547</v>
       </c>
       <c r="C359" s="2">
-        <v>20207423286</v>
+        <v>20056943008</v>
       </c>
       <c r="D359" s="3">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>431.65</v>
+        <v>441.6</v>
       </c>
       <c r="C360" s="2">
-        <v>25259869419</v>
+        <v>25350887061</v>
       </c>
       <c r="D360" s="3">
         <v>22</v>
@@ -6963,13 +6963,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>92.941</v>
+        <v>94.72</v>
       </c>
       <c r="C361" s="2">
-        <v>33345686675</v>
+        <v>33129789311</v>
       </c>
       <c r="D361" s="3">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6977,13 +6977,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>13.371</v>
+        <v>13.623</v>
       </c>
       <c r="C362" s="2">
-        <v>5755464021</v>
+        <v>5800537026</v>
       </c>
       <c r="D362" s="3">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6991,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>86.08</v>
+        <v>87.545</v>
       </c>
       <c r="C363" s="2">
-        <v>31077723053</v>
+        <v>30280837779</v>
       </c>
       <c r="D363" s="3">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7005,13 +7005,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>29.65</v>
+        <v>29.44</v>
       </c>
       <c r="C364" s="2">
-        <v>16656493258</v>
+        <v>16571428030</v>
       </c>
       <c r="D364" s="3">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,13 +7019,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>57.1</v>
+        <v>58.47</v>
       </c>
       <c r="C365" s="2">
-        <v>29174820344</v>
+        <v>29334011951</v>
       </c>
       <c r="D365" s="3">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7033,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>145.03</v>
+        <v>149.194</v>
       </c>
       <c r="C366" s="2">
-        <v>205904291859</v>
+        <v>207342242713</v>
       </c>
       <c r="D366" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7047,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>41.88</v>
+        <v>41.96</v>
       </c>
       <c r="C367" s="2">
-        <v>232620251977</v>
+        <v>235433335653</v>
       </c>
       <c r="D367" s="3">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7061,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>50.04</v>
+        <v>50.632</v>
       </c>
       <c r="C368" s="2">
-        <v>14336287008</v>
+        <v>13498993953</v>
       </c>
       <c r="D368" s="3">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,10 +7075,10 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>139.34</v>
+        <v>139.08</v>
       </c>
       <c r="C369" s="2">
-        <v>341754477462</v>
+        <v>348609610213</v>
       </c>
       <c r="D369" s="3">
         <v>71</v>
@@ -7089,13 +7089,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>97.09999999999999</v>
+        <v>94.80800000000001</v>
       </c>
       <c r="C370" s="2">
-        <v>56115705322</v>
+        <v>57865390009</v>
       </c>
       <c r="D370" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,10 +7103,10 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>285.62</v>
+        <v>283.347</v>
       </c>
       <c r="C371" s="2">
-        <v>35964749474</v>
+        <v>36709725744</v>
       </c>
       <c r="D371" s="3">
         <v>34</v>
@@ -7117,13 +7117,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>43.09</v>
+        <v>43.52</v>
       </c>
       <c r="C372" s="2">
-        <v>11581443785</v>
+        <v>11342139962</v>
       </c>
       <c r="D372" s="3">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7131,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>142.09</v>
+        <v>139.351</v>
       </c>
       <c r="C373" s="2">
-        <v>13057108704</v>
+        <v>13450235661</v>
       </c>
       <c r="D373" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7145,13 +7145,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>150.03</v>
+        <v>148</v>
       </c>
       <c r="C374" s="2">
-        <v>16421743597</v>
+        <v>16521647636</v>
       </c>
       <c r="D374" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,10 +7159,10 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>100.1</v>
+        <v>100.36</v>
       </c>
       <c r="C375" s="2">
-        <v>72897810061</v>
+        <v>73597872229</v>
       </c>
       <c r="D375" s="3">
         <v>98</v>
@@ -7173,10 +7173,10 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>87.41</v>
+        <v>87.2</v>
       </c>
       <c r="C376" s="2">
-        <v>137758945023</v>
+        <v>134761133573</v>
       </c>
       <c r="D376" s="3">
         <v>113</v>
@@ -7187,10 +7187,10 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>147.36</v>
+        <v>147.75</v>
       </c>
       <c r="C377" s="2">
-        <v>62965275565</v>
+        <v>62209570371</v>
       </c>
       <c r="D377" s="3">
         <v>67</v>
@@ -7201,13 +7201,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>52.09</v>
+        <v>51.58</v>
       </c>
       <c r="C378" s="2">
-        <v>8688661006</v>
+        <v>8716622641</v>
       </c>
       <c r="D378" s="3">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,10 +7215,10 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>81.13</v>
+        <v>80.646</v>
       </c>
       <c r="C379" s="2">
-        <v>9236921331</v>
+        <v>9399590637</v>
       </c>
       <c r="D379" s="3">
         <v>122</v>
@@ -7229,13 +7229,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>145.81</v>
+        <v>148.18</v>
       </c>
       <c r="C380" s="2">
-        <v>34705362931</v>
+        <v>34662091312</v>
       </c>
       <c r="D380" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7243,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>29.3</v>
+        <v>28.301</v>
       </c>
       <c r="C381" s="2">
-        <v>22598469934</v>
+        <v>22287188952</v>
       </c>
       <c r="D381" s="3">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7257,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>50.85</v>
+        <v>49.87</v>
       </c>
       <c r="C382" s="2">
-        <v>6694479337</v>
+        <v>6507540724</v>
       </c>
       <c r="D382" s="3">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7271,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>80.09</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C383" s="2">
-        <v>33057972667</v>
+        <v>31789595302</v>
       </c>
       <c r="D383" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,13 +7285,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>222.6</v>
+        <v>225.1</v>
       </c>
       <c r="C384" s="2">
-        <v>39230131938</v>
+        <v>39746200716</v>
       </c>
       <c r="D384" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7299,13 +7299,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>72.38</v>
+        <v>72.08199999999999</v>
       </c>
       <c r="C385" s="2">
-        <v>31214904680</v>
+        <v>30251521917</v>
       </c>
       <c r="D385" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7313,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>97.45999999999999</v>
+        <v>96.646</v>
       </c>
       <c r="C386" s="2">
-        <v>7015849049</v>
+        <v>6742126442</v>
       </c>
       <c r="D386" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,13 +7327,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>75</v>
+        <v>73.5</v>
       </c>
       <c r="C387" s="2">
-        <v>10216864055</v>
+        <v>10561075034</v>
       </c>
       <c r="D387" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7341,13 +7341,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>122.33</v>
+        <v>117.93</v>
       </c>
       <c r="C388" s="2">
-        <v>19964616981</v>
+        <v>19212542073</v>
       </c>
       <c r="D388" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,10 +7355,10 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>216.67</v>
+        <v>217.82</v>
       </c>
       <c r="C389" s="2">
-        <v>253896877058</v>
+        <v>249150026421</v>
       </c>
       <c r="D389" s="3">
         <v>45</v>
@@ -7369,13 +7369,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>162.09</v>
+        <v>147.4</v>
       </c>
       <c r="C390" s="2">
-        <v>182733725531</v>
+        <v>170986687926</v>
       </c>
       <c r="D390" s="3">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7383,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>162.18</v>
+        <v>153.34</v>
       </c>
       <c r="C391" s="2">
-        <v>18910018800</v>
+        <v>18009219937</v>
       </c>
       <c r="D391" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7397,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>83.75</v>
+        <v>79.98</v>
       </c>
       <c r="C392" s="2">
-        <v>18912135342</v>
+        <v>18190704219</v>
       </c>
       <c r="D392" s="3">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,10 +7411,10 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>237.31</v>
+        <v>235.84</v>
       </c>
       <c r="C393" s="2">
-        <v>9747611457</v>
+        <v>9669169878</v>
       </c>
       <c r="D393" s="3">
         <v>41</v>
@@ -7425,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>48.44</v>
+        <v>47.604</v>
       </c>
       <c r="C394" s="2">
-        <v>8361522999</v>
+        <v>8296973592</v>
       </c>
       <c r="D394" s="3">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,10 +7439,10 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>492.94</v>
+        <v>487.9</v>
       </c>
       <c r="C395" s="2">
-        <v>51699609234</v>
+        <v>49822334897</v>
       </c>
       <c r="D395" s="3">
         <v>20</v>
@@ -7453,13 +7453,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>16.53</v>
+        <v>15.93</v>
       </c>
       <c r="C396" s="2">
-        <v>15505495863</v>
+        <v>15367144451</v>
       </c>
       <c r="D396" s="3">
-        <v>598</v>
+        <v>621</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7467,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>66.41</v>
+        <v>64.59</v>
       </c>
       <c r="C397" s="2">
-        <v>7405809988</v>
+        <v>7504728158</v>
       </c>
       <c r="D397" s="3">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,13 +7481,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>94.11</v>
+        <v>94.327</v>
       </c>
       <c r="C398" s="2">
-        <v>13095406313</v>
+        <v>13006043513</v>
       </c>
       <c r="D398" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7495,13 +7495,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>104.09</v>
+        <v>105.99</v>
       </c>
       <c r="C399" s="2">
-        <v>5218319053</v>
+        <v>5044013767</v>
       </c>
       <c r="D399" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,10 +7509,10 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>211.83</v>
+        <v>211.08</v>
       </c>
       <c r="C400" s="2">
-        <v>31453139380</v>
+        <v>30998219034</v>
       </c>
       <c r="D400" s="3">
         <v>46</v>
@@ -7523,13 +7523,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>258.43</v>
+        <v>253.28</v>
       </c>
       <c r="C401" s="2">
-        <v>29066869933</v>
+        <v>28686998978</v>
       </c>
       <c r="D401" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7537,13 +7537,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>56.01</v>
+        <v>37.795</v>
       </c>
       <c r="C402" s="2">
-        <v>18113646473</v>
+        <v>12284852048</v>
       </c>
       <c r="D402" s="3">
-        <v>176</v>
+        <v>261</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,10 +7551,10 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>417</v>
+        <v>426.24</v>
       </c>
       <c r="C403" s="2">
-        <v>45633599307</v>
+        <v>45228729196</v>
       </c>
       <c r="D403" s="3">
         <v>23</v>
@@ -7565,10 +7565,10 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>116.506</v>
+        <v>116.66</v>
       </c>
       <c r="C404" s="2">
-        <v>41192072474</v>
+        <v>40592478010</v>
       </c>
       <c r="D404" s="3">
         <v>84</v>
@@ -7579,13 +7579,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>97.37</v>
+        <v>98.3</v>
       </c>
       <c r="C405" s="2">
-        <v>31256882530</v>
+        <v>30147654275</v>
       </c>
       <c r="D405" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7593,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>74.25</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="C406" s="2">
-        <v>114107923926</v>
+        <v>112434640048</v>
       </c>
       <c r="D406" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7607,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>281.4</v>
+        <v>283.26</v>
       </c>
       <c r="C407" s="2">
-        <v>30749842486</v>
+        <v>31040633659</v>
       </c>
       <c r="D407" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7621,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>106.27</v>
+        <v>107.06</v>
       </c>
       <c r="C408" s="2">
-        <v>127296831875</v>
+        <v>123495682278</v>
       </c>
       <c r="D408" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7635,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>52.5</v>
+        <v>50.1</v>
       </c>
       <c r="C409" s="2">
-        <v>92437572872</v>
+        <v>88786975416</v>
       </c>
       <c r="D409" s="3">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,10 +7649,10 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>46.8</v>
+        <v>46.74</v>
       </c>
       <c r="C410" s="2">
-        <v>7346607928</v>
+        <v>7208322656</v>
       </c>
       <c r="D410" s="3">
         <v>211</v>
@@ -7663,10 +7663,10 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>725.98</v>
+        <v>724.67</v>
       </c>
       <c r="C411" s="2">
-        <v>68146530539</v>
+        <v>67570584402</v>
       </c>
       <c r="D411" s="3">
         <v>13</v>
@@ -7677,13 +7677,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>368.2</v>
+        <v>357.41</v>
       </c>
       <c r="C412" s="2">
-        <v>18603349987</v>
+        <v>18421991617</v>
       </c>
       <c r="D412" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7691,13 +7691,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>118.56</v>
+        <v>115.86</v>
       </c>
       <c r="C413" s="2">
-        <v>13816892757</v>
+        <v>13549569546</v>
       </c>
       <c r="D413" s="3">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7705,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>24.3</v>
+        <v>23.111</v>
       </c>
       <c r="C414" s="2">
-        <v>33302171970</v>
+        <v>32553682896</v>
       </c>
       <c r="D414" s="3">
-        <v>407</v>
+        <v>428</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7719,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>63.15</v>
+        <v>62.199</v>
       </c>
       <c r="C415" s="2">
-        <v>4565179404</v>
+        <v>4639991266</v>
       </c>
       <c r="D415" s="3">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,10 +7733,10 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>188.44</v>
+        <v>187.7</v>
       </c>
       <c r="C416" s="2">
-        <v>9899173843</v>
+        <v>10059599013</v>
       </c>
       <c r="D416" s="3">
         <v>52</v>
@@ -7747,10 +7747,10 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>243.57</v>
+        <v>241.63</v>
       </c>
       <c r="C417" s="2">
-        <v>37166304510</v>
+        <v>37133324164</v>
       </c>
       <c r="D417" s="3">
         <v>40</v>
@@ -7761,10 +7761,10 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>60.9</v>
+        <v>61.1</v>
       </c>
       <c r="C418" s="2">
-        <v>64779080129</v>
+        <v>66490821766</v>
       </c>
       <c r="D418" s="3">
         <v>162</v>
@@ -7775,13 +7775,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>94.8</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C419" s="2">
-        <v>30528763564</v>
+        <v>29473972582</v>
       </c>
       <c r="D419" s="3">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,10 +7789,10 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>338</v>
+        <v>340.28</v>
       </c>
       <c r="C420" s="2">
-        <v>80854365559</v>
+        <v>79294379152</v>
       </c>
       <c r="D420" s="3">
         <v>29</v>
@@ -7803,13 +7803,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>130.37</v>
+        <v>128.92</v>
       </c>
       <c r="C421" s="2">
-        <v>37321530463</v>
+        <v>36965421985</v>
       </c>
       <c r="D421" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7817,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>190.88</v>
+        <v>189.445</v>
       </c>
       <c r="C422" s="2">
-        <v>16499802874</v>
+        <v>16024886071</v>
       </c>
       <c r="D422" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7831,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>73.83</v>
+        <v>72.86</v>
       </c>
       <c r="C423" s="2">
-        <v>26242081186</v>
+        <v>24972203224</v>
       </c>
       <c r="D423" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7845,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>66.15000000000001</v>
+        <v>67.783</v>
       </c>
       <c r="C424" s="2">
-        <v>17007687453</v>
+        <v>17462366246</v>
       </c>
       <c r="D424" s="3">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,10 +7859,10 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>210.47</v>
+        <v>210.55</v>
       </c>
       <c r="C425" s="2">
-        <v>41100664434</v>
+        <v>39753019217</v>
       </c>
       <c r="D425" s="3">
         <v>47</v>
@@ -7873,13 +7873,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>185.04</v>
+        <v>178.31</v>
       </c>
       <c r="C426" s="2">
-        <v>28584718599</v>
+        <v>28338626200</v>
       </c>
       <c r="D426" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7887,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>148.54</v>
+        <v>142.14</v>
       </c>
       <c r="C427" s="2">
-        <v>24577156879</v>
+        <v>23670054675</v>
       </c>
       <c r="D427" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7901,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>33.64</v>
+        <v>32.41</v>
       </c>
       <c r="C428" s="2">
-        <v>19285009593</v>
+        <v>19171165792</v>
       </c>
       <c r="D428" s="3">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,13 +7915,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>244.11</v>
+        <v>238.15</v>
       </c>
       <c r="C429" s="2">
-        <v>89581060187</v>
+        <v>87647416948</v>
       </c>
       <c r="D429" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7929,13 +7929,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>79.91</v>
+        <v>77.264</v>
       </c>
       <c r="C430" s="2">
-        <v>40028525706</v>
+        <v>39521533884</v>
       </c>
       <c r="D430" s="3">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7943,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>31.5</v>
+        <v>31.721</v>
       </c>
       <c r="C431" s="2">
-        <v>221456756352</v>
+        <v>223763329851</v>
       </c>
       <c r="D431" s="3">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7957,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>49.09</v>
+        <v>48.622</v>
       </c>
       <c r="C432" s="2">
-        <v>10086750417</v>
+        <v>9661244776</v>
       </c>
       <c r="D432" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,10 +7971,10 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>607.26</v>
+        <v>616.48</v>
       </c>
       <c r="C433" s="2">
-        <v>33937422642</v>
+        <v>34017376376</v>
       </c>
       <c r="D433" s="3">
         <v>16</v>
@@ -7985,10 +7985,10 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>409.97</v>
+        <v>407.32</v>
       </c>
       <c r="C434" s="2">
-        <v>14807468268</v>
+        <v>14990798467</v>
       </c>
       <c r="D434" s="3">
         <v>24</v>
@@ -7999,13 +7999,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>118.9</v>
+        <v>120.85</v>
       </c>
       <c r="C435" s="2">
-        <v>40361018505</v>
+        <v>39201955957</v>
       </c>
       <c r="D435" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8013,13 +8013,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>48.31</v>
+        <v>49</v>
       </c>
       <c r="C436" s="2">
-        <v>67208696249</v>
+        <v>65364549028</v>
       </c>
       <c r="D436" s="3">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,10 +8027,10 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>393</v>
+        <v>388.96</v>
       </c>
       <c r="C437" s="2">
-        <v>17948730472</v>
+        <v>17693189907</v>
       </c>
       <c r="D437" s="3">
         <v>25</v>
@@ -8041,10 +8041,10 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>175.4</v>
+        <v>176.56</v>
       </c>
       <c r="C438" s="2">
-        <v>89792109764</v>
+        <v>89851938812</v>
       </c>
       <c r="D438" s="3">
         <v>56</v>
@@ -8055,13 +8055,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>137.11</v>
+        <v>135.02</v>
       </c>
       <c r="C439" s="2">
-        <v>16535754677</v>
+        <v>16035687349</v>
       </c>
       <c r="D439" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8069,13 +8069,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>68.43000000000001</v>
+        <v>67.22</v>
       </c>
       <c r="C440" s="2">
-        <v>82440197783</v>
+        <v>80676236237</v>
       </c>
       <c r="D440" s="3">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,10 +8083,10 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>483.17</v>
+        <v>480.81</v>
       </c>
       <c r="C441" s="2">
-        <v>191627660542</v>
+        <v>192632205426</v>
       </c>
       <c r="D441" s="3">
         <v>20</v>
@@ -8097,13 +8097,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>131.1</v>
+        <v>132.73</v>
       </c>
       <c r="C442" s="2">
-        <v>168525904200</v>
+        <v>163131177261</v>
       </c>
       <c r="D442" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8111,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>30.1</v>
+        <v>29.54</v>
       </c>
       <c r="C443" s="2">
-        <v>8231091908</v>
+        <v>8512269103</v>
       </c>
       <c r="D443" s="3">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8125,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>152.2</v>
+        <v>155.76</v>
       </c>
       <c r="C444" s="2">
-        <v>34118750521</v>
+        <v>34131907066</v>
       </c>
       <c r="D444" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,10 +8139,10 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>138.48</v>
+        <v>138.58</v>
       </c>
       <c r="C445" s="2">
-        <v>35932958167</v>
+        <v>35412457997</v>
       </c>
       <c r="D445" s="3">
         <v>71</v>
@@ -8153,13 +8153,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>142.08</v>
+        <v>138.14</v>
       </c>
       <c r="C446" s="2">
-        <v>16352693920</v>
+        <v>16249023273</v>
       </c>
       <c r="D446" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8167,13 +8167,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>72.54000000000001</v>
+        <v>71.17</v>
       </c>
       <c r="C447" s="2">
-        <v>21366078394</v>
+        <v>20890542290</v>
       </c>
       <c r="D447" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,10 +8181,10 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>144.47</v>
+        <v>144.02</v>
       </c>
       <c r="C448" s="2">
-        <v>33539999488</v>
+        <v>33612011961</v>
       </c>
       <c r="D448" s="3">
         <v>68</v>
@@ -8195,13 +8195,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>190.2</v>
+        <v>198.484</v>
       </c>
       <c r="C449" s="2">
-        <v>21922644445</v>
+        <v>22491200063</v>
       </c>
       <c r="D449" s="3">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8209,10 +8209,10 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>51.64</v>
+        <v>51.695</v>
       </c>
       <c r="C450" s="2">
-        <v>40764520760</v>
+        <v>41732986486</v>
       </c>
       <c r="D450" s="3">
         <v>191</v>
@@ -8223,10 +8223,10 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>163.79</v>
+        <v>163.31</v>
       </c>
       <c r="C451" s="2">
-        <v>149988117773</v>
+        <v>153819214274</v>
       </c>
       <c r="D451" s="3">
         <v>60</v>
@@ -8237,13 +8237,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>48.72</v>
+        <v>49.48</v>
       </c>
       <c r="C452" s="2">
-        <v>11541144485</v>
+        <v>11119617326</v>
       </c>
       <c r="D452" s="3">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,10 +8251,10 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>470.16</v>
+        <v>451.93</v>
       </c>
       <c r="C453" s="2">
-        <v>18621027626</v>
+        <v>18388530079</v>
       </c>
       <c r="D453" s="3">
         <v>21</v>
@@ -8265,13 +8265,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>16.11</v>
+        <v>15.608</v>
       </c>
       <c r="C454" s="2">
-        <v>7037498966</v>
+        <v>7106301862</v>
       </c>
       <c r="D454" s="3">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8279,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>17.7</v>
+        <v>17.528</v>
       </c>
       <c r="C455" s="2">
-        <v>7201803886</v>
+        <v>6808883481</v>
       </c>
       <c r="D455" s="3">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8293,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>51.546</v>
+        <v>49.43</v>
       </c>
       <c r="C456" s="2">
-        <v>15182314492</v>
+        <v>14780867968</v>
       </c>
       <c r="D456" s="3">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8307,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>39.17</v>
+        <v>39.47</v>
       </c>
       <c r="C457" s="2">
-        <v>11392664064</v>
+        <v>11438244832</v>
       </c>
       <c r="D457" s="3">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8321,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>137.64</v>
+        <v>135.048</v>
       </c>
       <c r="C458" s="2">
-        <v>10585620161</v>
+        <v>10409057559</v>
       </c>
       <c r="D458" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8335,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>273.157</v>
+        <v>267</v>
       </c>
       <c r="C459" s="2">
-        <v>15552731610</v>
+        <v>15169196281</v>
       </c>
       <c r="D459" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,10 +8349,10 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>342.88</v>
+        <v>342.22</v>
       </c>
       <c r="C460" s="2">
-        <v>326509126504</v>
+        <v>323263533222</v>
       </c>
       <c r="D460" s="3">
         <v>28</v>
@@ -8363,13 +8363,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>24.69</v>
+        <v>23.444</v>
       </c>
       <c r="C461" s="2">
-        <v>4901084315</v>
+        <v>4833132967</v>
       </c>
       <c r="D461" s="3">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8377,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>205.11</v>
+        <v>211.4</v>
       </c>
       <c r="C462" s="2">
-        <v>137005666825</v>
+        <v>137754119329</v>
       </c>
       <c r="D462" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8391,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>167.02</v>
+        <v>175.432</v>
       </c>
       <c r="C463" s="2">
-        <v>120018601264</v>
+        <v>122687370165</v>
       </c>
       <c r="D463" s="3">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,10 +8405,10 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>251.31</v>
+        <v>252.639</v>
       </c>
       <c r="C464" s="2">
-        <v>17458799049</v>
+        <v>17785026359</v>
       </c>
       <c r="D464" s="3">
         <v>39</v>
@@ -8419,10 +8419,10 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>47.61</v>
+        <v>47.76</v>
       </c>
       <c r="C465" s="2">
-        <v>72418717730</v>
+        <v>68742288027</v>
       </c>
       <c r="D465" s="3">
         <v>207</v>
@@ -8433,13 +8433,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>210.18</v>
+        <v>206.249</v>
       </c>
       <c r="C466" s="2">
-        <v>446136297694</v>
+        <v>444171284045</v>
       </c>
       <c r="D466" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8447,13 +8447,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>182.84</v>
+        <v>178.2</v>
       </c>
       <c r="C467" s="2">
-        <v>16009048335</v>
+        <v>16531228747</v>
       </c>
       <c r="D467" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8461,13 +8461,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>88.5</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="C468" s="2">
-        <v>34450769622</v>
+        <v>34730395690</v>
       </c>
       <c r="D468" s="3">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8475,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>37.51</v>
+        <v>36.8</v>
       </c>
       <c r="C469" s="2">
-        <v>22934061148</v>
+        <v>22456351789</v>
       </c>
       <c r="D469" s="3">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,13 +8489,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>61.92</v>
+        <v>60.68</v>
       </c>
       <c r="C470" s="2">
-        <v>25455359402</v>
+        <v>24213197802</v>
       </c>
       <c r="D470" s="3">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8506,7 +8506,7 @@
         <v>140.36</v>
       </c>
       <c r="C471" s="2">
-        <v>18464806549</v>
+        <v>18557248677</v>
       </c>
       <c r="D471" s="3">
         <v>70</v>
@@ -8517,13 +8517,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>41.46</v>
+        <v>39.66</v>
       </c>
       <c r="C472" s="2">
-        <v>7872120009</v>
+        <v>7534564946</v>
       </c>
       <c r="D472" s="3">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8531,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>193.63</v>
+        <v>195.5</v>
       </c>
       <c r="C473" s="2">
-        <v>31584699888</v>
+        <v>32644214245</v>
       </c>
       <c r="D473" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,10 +8545,10 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>212.12</v>
+        <v>213.332</v>
       </c>
       <c r="C474" s="2">
-        <v>24586305568</v>
+        <v>23962776564</v>
       </c>
       <c r="D474" s="3">
         <v>46</v>
@@ -8559,10 +8559,10 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>228.09</v>
+        <v>228.4</v>
       </c>
       <c r="C475" s="2">
-        <v>59948532330</v>
+        <v>58474606155</v>
       </c>
       <c r="D475" s="3">
         <v>43</v>
@@ -8573,13 +8573,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>50.07</v>
+        <v>51.37</v>
       </c>
       <c r="C476" s="2">
-        <v>18794046559</v>
+        <v>18365929026</v>
       </c>
       <c r="D476" s="3">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8587,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>61.77</v>
+        <v>62.398</v>
       </c>
       <c r="C477" s="2">
-        <v>251341968308</v>
+        <v>253691376311</v>
       </c>
       <c r="D477" s="3">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8601,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>75.5</v>
+        <v>77.25</v>
       </c>
       <c r="C478" s="2">
-        <v>14747972234</v>
+        <v>14958299030</v>
       </c>
       <c r="D478" s="3">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,10 +8615,10 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>246.5</v>
+        <v>243.7</v>
       </c>
       <c r="C479" s="2">
-        <v>15201415959</v>
+        <v>15374645156</v>
       </c>
       <c r="D479" s="3">
         <v>40</v>
@@ -8629,13 +8629,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>42.969</v>
+        <v>41.778</v>
       </c>
       <c r="C480" s="2">
-        <v>37560306695</v>
+        <v>36064158562</v>
       </c>
       <c r="D480" s="3">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8643,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>52.3</v>
+        <v>53.278</v>
       </c>
       <c r="C481" s="2">
-        <v>15802093650</v>
+        <v>15868660123</v>
       </c>
       <c r="D481" s="3">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8657,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>92.75</v>
+        <v>93.89</v>
       </c>
       <c r="C482" s="2">
-        <v>29192280055</v>
+        <v>29742466424</v>
       </c>
       <c r="D482" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8671,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>64.15000000000001</v>
+        <v>65.961</v>
       </c>
       <c r="C483" s="2">
-        <v>27826943256</v>
+        <v>26934115766</v>
       </c>
       <c r="D483" s="3">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8685,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>30.35</v>
+        <v>30.18</v>
       </c>
       <c r="C484" s="2">
-        <v>122731081043</v>
+        <v>123229631794</v>
       </c>
       <c r="D484" s="3">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8699,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>183.8</v>
+        <v>192.01</v>
       </c>
       <c r="C485" s="2">
-        <v>11454493886</v>
+        <v>11984840642</v>
       </c>
       <c r="D485" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,13 +8713,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>216.8</v>
+        <v>214.27</v>
       </c>
       <c r="C486" s="2">
-        <v>27734511149</v>
+        <v>27278062936</v>
       </c>
       <c r="D486" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8727,10 +8727,10 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>119.64</v>
+        <v>119.56</v>
       </c>
       <c r="C487" s="2">
-        <v>50426894400</v>
+        <v>49534302228</v>
       </c>
       <c r="D487" s="3">
         <v>82</v>
@@ -8741,13 +8741,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>22</v>
+        <v>22.764</v>
       </c>
       <c r="C488" s="2">
-        <v>26862548432</v>
+        <v>27174904220</v>
       </c>
       <c r="D488" s="3">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8755,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>152.49</v>
+        <v>151.2</v>
       </c>
       <c r="C489" s="2">
-        <v>424198627154</v>
+        <v>427318757177</v>
       </c>
       <c r="D489" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,13 +8769,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>66.81999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C490" s="2">
-        <v>11838599756</v>
+        <v>11799938288</v>
       </c>
       <c r="D490" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8783,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>45.36</v>
+        <v>44.591</v>
       </c>
       <c r="C491" s="2">
-        <v>11778980377</v>
+        <v>11483944538</v>
       </c>
       <c r="D491" s="3">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,10 +8797,10 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>272.82</v>
+        <v>270.581</v>
       </c>
       <c r="C492" s="2">
-        <v>20665638786</v>
+        <v>20096225482</v>
       </c>
       <c r="D492" s="3">
         <v>36</v>
@@ -8811,13 +8811,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>22.22</v>
+        <v>22.143</v>
       </c>
       <c r="C493" s="2">
-        <v>9216288182</v>
+        <v>9309978893</v>
       </c>
       <c r="D493" s="3">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,13 +8825,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>32.23</v>
+        <v>33.04</v>
       </c>
       <c r="C494" s="2">
-        <v>24675609383</v>
+        <v>24027926177</v>
       </c>
       <c r="D494" s="3">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8839,13 +8839,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>115.39</v>
+        <v>111.62</v>
       </c>
       <c r="C495" s="2">
-        <v>12411959904</v>
+        <v>12338913314</v>
       </c>
       <c r="D495" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,10 +8853,10 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>65.95</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="C496" s="2">
-        <v>35550867933</v>
+        <v>34010935853</v>
       </c>
       <c r="D496" s="3">
         <v>150</v>
@@ -8867,13 +8867,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>145.61</v>
+        <v>149.92</v>
       </c>
       <c r="C497" s="2">
-        <v>36967084168</v>
+        <v>35999519483</v>
       </c>
       <c r="D497" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8881,13 +8881,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>45.48</v>
+        <v>44.775</v>
       </c>
       <c r="C498" s="2">
-        <v>190878817111</v>
+        <v>189504370095</v>
       </c>
       <c r="D498" s="3">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8895,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>55.1</v>
+        <v>54.14</v>
       </c>
       <c r="C499" s="2">
-        <v>12171275131</v>
+        <v>11737418949</v>
       </c>
       <c r="D499" s="3">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8909,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>23.14</v>
+        <v>23.52</v>
       </c>
       <c r="C500" s="2">
-        <v>4608864185</v>
+        <v>4536075773</v>
       </c>
       <c r="D500" s="3">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,10 +8923,10 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>98.3</v>
+        <v>98.09</v>
       </c>
       <c r="C501" s="2">
-        <v>18124336498</v>
+        <v>18025478929</v>
       </c>
       <c r="D501" s="3">
         <v>100</v>
@@ -8937,13 +8937,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>111.07</v>
+        <v>107.27</v>
       </c>
       <c r="C502" s="2">
-        <v>33707992069</v>
+        <v>33123998477</v>
       </c>
       <c r="D502" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8951,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>146.87</v>
+        <v>148.54</v>
       </c>
       <c r="C503" s="2">
-        <v>31382505766</v>
+        <v>30494824936</v>
       </c>
       <c r="D503" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,13 +8965,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>375.62</v>
+        <v>394</v>
       </c>
       <c r="C504" s="2">
-        <v>20797680530</v>
+        <v>20256518810</v>
       </c>
       <c r="D504" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8979,13 +8979,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>43.66</v>
+        <v>42.47</v>
       </c>
       <c r="C505" s="2">
-        <v>7011300188</v>
+        <v>6899776576</v>
       </c>
       <c r="D505" s="3">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,13 +8993,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>158.85</v>
+        <v>160.57</v>
       </c>
       <c r="C506" s="2">
-        <v>76354097804</v>
+        <v>76749531762</v>
       </c>
       <c r="D506" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
